--- a/.mio/Secuenciador.xlsx
+++ b/.mio/Secuenciador.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlopezt\Documents\PlatformIO\Projects\Actuador-ESP32\.mio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35BC443-D96C-42F4-94CF-177F21DFCBC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B858672C-AFF6-4BD9-999C-4E3BB7FD1FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{E272C0E1-DFCC-4036-ADAB-96F87FDBC628}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{E272C0E1-DFCC-4036-ADAB-96F87FDBC628}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -3589,8 +3589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CD603C-F803-4FF3-86E6-DE77E262AA87}">
   <dimension ref="A1:Z132"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73:D132"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9934,10 +9934,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5B46E3-31F9-4C4A-90E1-1C540B1A935D}">
-  <dimension ref="A1:Z132"/>
+  <dimension ref="A1:Z128"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73:D132"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69:D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10136,16 +10136,16 @@
       </c>
       <c r="B3">
         <f>+SUMPRODUCT($C$1:$Z$1,C3:Z3)</f>
-        <v>11184810</v>
+        <v>13421772</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -10154,10 +10154,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -10166,10 +10166,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -10178,10 +10178,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -10190,10 +10190,10 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3">
         <v>1</v>
@@ -10202,10 +10202,10 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3">
         <v>1</v>
@@ -10216,17 +10216,17 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B66" si="1">+SUMPRODUCT($C$1:$Z$1,C4:Z4)</f>
-        <v>5592405</v>
+        <f t="shared" ref="B4:B62" si="1">+SUMPRODUCT($C$1:$Z$1,C4:Z4)</f>
+        <v>3355443</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -10235,10 +10235,10 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -10247,10 +10247,10 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -10259,10 +10259,10 @@
         <v>1</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -10271,10 +10271,10 @@
         <v>1</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -10283,10 +10283,10 @@
         <v>1</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -10298,16 +10298,16 @@
       </c>
       <c r="B5">
         <f t="shared" si="1"/>
-        <v>11184810</v>
+        <v>13421772</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -10316,10 +10316,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -10328,10 +10328,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -10340,10 +10340,10 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -10352,10 +10352,10 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
         <v>1</v>
@@ -10364,10 +10364,10 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5">
         <v>1</v>
@@ -10379,16 +10379,16 @@
       </c>
       <c r="B6">
         <f t="shared" si="1"/>
-        <v>5592405</v>
+        <v>3355443</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10397,10 +10397,10 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -10409,10 +10409,10 @@
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -10421,10 +10421,10 @@
         <v>1</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -10433,10 +10433,10 @@
         <v>1</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>1</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -10460,16 +10460,16 @@
       </c>
       <c r="B7">
         <f t="shared" si="1"/>
-        <v>11184810</v>
+        <v>13421772</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -10478,10 +10478,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -10490,10 +10490,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -10502,10 +10502,10 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>1</v>
@@ -10514,10 +10514,10 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7">
         <v>1</v>
@@ -10526,10 +10526,10 @@
         <v>0</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7">
         <v>1</v>
@@ -10541,16 +10541,16 @@
       </c>
       <c r="B8">
         <f t="shared" si="1"/>
-        <v>5592405</v>
+        <v>3355443</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10559,10 +10559,10 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -10571,10 +10571,10 @@
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -10583,10 +10583,10 @@
         <v>1</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -10595,10 +10595,10 @@
         <v>1</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -10607,10 +10607,10 @@
         <v>1</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -10622,16 +10622,16 @@
       </c>
       <c r="B9">
         <f t="shared" si="1"/>
-        <v>11184810</v>
+        <v>13421772</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -10640,10 +10640,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -10652,10 +10652,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -10664,10 +10664,10 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <v>1</v>
@@ -10676,10 +10676,10 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9">
         <v>1</v>
@@ -10688,10 +10688,10 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9">
         <v>1</v>
@@ -10703,16 +10703,16 @@
       </c>
       <c r="B10">
         <f t="shared" si="1"/>
-        <v>5592405</v>
+        <v>3355443</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -10721,10 +10721,10 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -10733,10 +10733,10 @@
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -10745,10 +10745,10 @@
         <v>1</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -10757,10 +10757,10 @@
         <v>1</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -10769,10 +10769,10 @@
         <v>1</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -10784,16 +10784,16 @@
       </c>
       <c r="B11">
         <f t="shared" si="1"/>
-        <v>11184810</v>
+        <v>13421772</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -10802,10 +10802,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -10814,10 +10814,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -10826,10 +10826,10 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11">
         <v>1</v>
@@ -10838,10 +10838,10 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11">
         <v>1</v>
@@ -10850,10 +10850,10 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11">
         <v>1</v>
@@ -10865,16 +10865,16 @@
       </c>
       <c r="B12">
         <f t="shared" si="1"/>
-        <v>5592405</v>
+        <v>3355443</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -10883,10 +10883,10 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -10895,10 +10895,10 @@
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -10907,10 +10907,10 @@
         <v>1</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>1</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -10931,10 +10931,10 @@
         <v>1</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -10946,16 +10946,16 @@
       </c>
       <c r="B13">
         <f t="shared" si="1"/>
-        <v>11184810</v>
+        <v>13421772</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -10964,10 +10964,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -10976,10 +10976,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -10988,10 +10988,10 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13">
         <v>1</v>
@@ -11000,10 +11000,10 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13">
         <v>1</v>
@@ -11012,10 +11012,10 @@
         <v>0</v>
       </c>
       <c r="X13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13">
         <v>1</v>
@@ -11027,16 +11027,16 @@
       </c>
       <c r="B14">
         <f t="shared" si="1"/>
-        <v>5592405</v>
+        <v>3355443</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -11045,10 +11045,10 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -11057,10 +11057,10 @@
         <v>1</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -11069,10 +11069,10 @@
         <v>1</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -11081,10 +11081,10 @@
         <v>1</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -11093,10 +11093,10 @@
         <v>1</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -11108,16 +11108,16 @@
       </c>
       <c r="B15">
         <f t="shared" si="1"/>
-        <v>11184810</v>
+        <v>13421772</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -11126,10 +11126,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -11138,10 +11138,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -11150,10 +11150,10 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15">
         <v>1</v>
@@ -11162,10 +11162,10 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15">
         <v>1</v>
@@ -11174,10 +11174,10 @@
         <v>0</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15">
         <v>1</v>
@@ -11189,16 +11189,16 @@
       </c>
       <c r="B16">
         <f t="shared" si="1"/>
-        <v>5592405</v>
+        <v>3355443</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -11207,10 +11207,10 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -11219,10 +11219,10 @@
         <v>1</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -11231,10 +11231,10 @@
         <v>1</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -11243,10 +11243,10 @@
         <v>1</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -11255,10 +11255,10 @@
         <v>1</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -11270,16 +11270,16 @@
       </c>
       <c r="B17">
         <f t="shared" si="1"/>
-        <v>11184810</v>
+        <v>13421772</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -11288,10 +11288,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -11300,10 +11300,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -11312,10 +11312,10 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17">
         <v>1</v>
@@ -11324,10 +11324,10 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17">
         <v>1</v>
@@ -11336,10 +11336,10 @@
         <v>0</v>
       </c>
       <c r="X17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z17">
         <v>1</v>
@@ -11351,16 +11351,16 @@
       </c>
       <c r="B18">
         <f t="shared" si="1"/>
-        <v>5592405</v>
+        <v>3355443</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -11369,10 +11369,10 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -11381,10 +11381,10 @@
         <v>1</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>1</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -11405,10 +11405,10 @@
         <v>1</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -11417,10 +11417,10 @@
         <v>1</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -11432,16 +11432,16 @@
       </c>
       <c r="B19">
         <f t="shared" si="1"/>
-        <v>11184810</v>
+        <v>13421772</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -11450,10 +11450,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -11462,10 +11462,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -11474,10 +11474,10 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19">
         <v>1</v>
@@ -11486,10 +11486,10 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19">
         <v>1</v>
@@ -11498,10 +11498,10 @@
         <v>0</v>
       </c>
       <c r="X19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19">
         <v>1</v>
@@ -11513,16 +11513,16 @@
       </c>
       <c r="B20">
         <f t="shared" si="1"/>
-        <v>5592405</v>
+        <v>3355443</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -11531,10 +11531,10 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -11543,10 +11543,10 @@
         <v>1</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -11555,10 +11555,10 @@
         <v>1</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -11567,10 +11567,10 @@
         <v>1</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -11579,10 +11579,10 @@
         <v>1</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -11594,16 +11594,16 @@
       </c>
       <c r="B21">
         <f t="shared" si="1"/>
-        <v>11184810</v>
+        <v>13421772</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -11612,10 +11612,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -11624,10 +11624,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -11636,10 +11636,10 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21">
         <v>1</v>
@@ -11648,10 +11648,10 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21">
         <v>1</v>
@@ -11660,10 +11660,10 @@
         <v>0</v>
       </c>
       <c r="X21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z21">
         <v>1</v>
@@ -11675,16 +11675,16 @@
       </c>
       <c r="B22">
         <f t="shared" si="1"/>
-        <v>5592405</v>
+        <v>3355443</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -11693,10 +11693,10 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -11705,10 +11705,10 @@
         <v>1</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -11717,10 +11717,10 @@
         <v>1</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -11729,10 +11729,10 @@
         <v>1</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -11741,10 +11741,10 @@
         <v>1</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -11756,16 +11756,16 @@
       </c>
       <c r="B23">
         <f t="shared" si="1"/>
-        <v>11184810</v>
+        <v>13421772</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -11774,10 +11774,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -11786,10 +11786,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -11798,10 +11798,10 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23">
         <v>1</v>
@@ -11810,10 +11810,10 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23">
         <v>1</v>
@@ -11822,10 +11822,10 @@
         <v>0</v>
       </c>
       <c r="X23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z23">
         <v>1</v>
@@ -11837,16 +11837,16 @@
       </c>
       <c r="B24">
         <f t="shared" si="1"/>
-        <v>5592405</v>
+        <v>3355443</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -11855,10 +11855,10 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -11867,10 +11867,10 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -11879,10 +11879,10 @@
         <v>1</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -11891,10 +11891,10 @@
         <v>1</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -11903,10 +11903,10 @@
         <v>1</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -11918,16 +11918,16 @@
       </c>
       <c r="B25">
         <f t="shared" si="1"/>
-        <v>11184810</v>
+        <v>13421772</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -11936,10 +11936,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -11948,10 +11948,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -11960,10 +11960,10 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25">
         <v>1</v>
@@ -11972,10 +11972,10 @@
         <v>0</v>
       </c>
       <c r="T25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25">
         <v>1</v>
@@ -11984,10 +11984,10 @@
         <v>0</v>
       </c>
       <c r="X25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z25">
         <v>1</v>
@@ -11999,16 +11999,16 @@
       </c>
       <c r="B26">
         <f t="shared" si="1"/>
-        <v>5592405</v>
+        <v>3355443</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -12017,10 +12017,10 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -12029,10 +12029,10 @@
         <v>1</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -12041,10 +12041,10 @@
         <v>1</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26">
         <v>0</v>
@@ -12053,10 +12053,10 @@
         <v>1</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -12065,10 +12065,10 @@
         <v>1</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -12080,16 +12080,16 @@
       </c>
       <c r="B27">
         <f t="shared" si="1"/>
-        <v>11184810</v>
+        <v>13421772</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -12098,10 +12098,10 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -12110,10 +12110,10 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -12122,10 +12122,10 @@
         <v>0</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27">
         <v>1</v>
@@ -12134,10 +12134,10 @@
         <v>0</v>
       </c>
       <c r="T27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27">
         <v>1</v>
@@ -12146,10 +12146,10 @@
         <v>0</v>
       </c>
       <c r="X27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z27">
         <v>1</v>
@@ -12161,16 +12161,16 @@
       </c>
       <c r="B28">
         <f t="shared" si="1"/>
-        <v>5592405</v>
+        <v>3355443</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -12179,10 +12179,10 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -12191,10 +12191,10 @@
         <v>1</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -12203,10 +12203,10 @@
         <v>1</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28">
         <v>0</v>
@@ -12215,10 +12215,10 @@
         <v>1</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -12227,10 +12227,10 @@
         <v>1</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -12242,16 +12242,16 @@
       </c>
       <c r="B29">
         <f t="shared" si="1"/>
-        <v>11184810</v>
+        <v>13421772</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -12260,10 +12260,10 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -12272,10 +12272,10 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -12284,10 +12284,10 @@
         <v>0</v>
       </c>
       <c r="P29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29">
         <v>1</v>
@@ -12296,10 +12296,10 @@
         <v>0</v>
       </c>
       <c r="T29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29">
         <v>1</v>
@@ -12308,10 +12308,10 @@
         <v>0</v>
       </c>
       <c r="X29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z29">
         <v>1</v>
@@ -12323,16 +12323,16 @@
       </c>
       <c r="B30">
         <f t="shared" si="1"/>
-        <v>5592405</v>
+        <v>3355443</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -12341,10 +12341,10 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -12353,10 +12353,10 @@
         <v>1</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -12365,10 +12365,10 @@
         <v>1</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30">
         <v>0</v>
@@ -12377,10 +12377,10 @@
         <v>1</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -12389,10 +12389,10 @@
         <v>1</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -12404,16 +12404,16 @@
       </c>
       <c r="B31">
         <f t="shared" si="1"/>
-        <v>11184810</v>
+        <v>13421772</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -12422,10 +12422,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -12434,10 +12434,10 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -12446,10 +12446,10 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31">
         <v>1</v>
@@ -12458,10 +12458,10 @@
         <v>0</v>
       </c>
       <c r="T31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31">
         <v>1</v>
@@ -12470,10 +12470,10 @@
         <v>0</v>
       </c>
       <c r="X31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z31">
         <v>1</v>
@@ -12485,16 +12485,16 @@
       </c>
       <c r="B32">
         <f t="shared" si="1"/>
-        <v>5592405</v>
+        <v>3355443</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -12503,10 +12503,10 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -12515,10 +12515,10 @@
         <v>1</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -12527,10 +12527,10 @@
         <v>1</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32">
         <v>0</v>
@@ -12539,10 +12539,10 @@
         <v>1</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -12551,10 +12551,10 @@
         <v>1</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -12566,16 +12566,16 @@
       </c>
       <c r="B33">
         <f t="shared" si="1"/>
-        <v>11184810</v>
+        <v>13421772</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -12584,10 +12584,10 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -12596,10 +12596,10 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -12608,10 +12608,10 @@
         <v>0</v>
       </c>
       <c r="P33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33">
         <v>1</v>
@@ -12620,10 +12620,10 @@
         <v>0</v>
       </c>
       <c r="T33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V33">
         <v>1</v>
@@ -12632,10 +12632,10 @@
         <v>0</v>
       </c>
       <c r="X33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z33">
         <v>1</v>
@@ -12647,16 +12647,16 @@
       </c>
       <c r="B34">
         <f t="shared" si="1"/>
-        <v>5592405</v>
+        <v>3355443</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -12665,10 +12665,10 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -12677,10 +12677,10 @@
         <v>1</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -12689,10 +12689,10 @@
         <v>1</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34">
         <v>0</v>
@@ -12701,10 +12701,10 @@
         <v>1</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -12713,10 +12713,10 @@
         <v>1</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -12728,16 +12728,16 @@
       </c>
       <c r="B35">
         <f t="shared" si="1"/>
-        <v>11184810</v>
+        <v>13421772</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -12746,10 +12746,10 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -12758,10 +12758,10 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -12770,10 +12770,10 @@
         <v>0</v>
       </c>
       <c r="P35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35">
         <v>1</v>
@@ -12782,10 +12782,10 @@
         <v>0</v>
       </c>
       <c r="T35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35">
         <v>1</v>
@@ -12794,10 +12794,10 @@
         <v>0</v>
       </c>
       <c r="X35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z35">
         <v>1</v>
@@ -12809,16 +12809,16 @@
       </c>
       <c r="B36">
         <f t="shared" si="1"/>
-        <v>5592405</v>
+        <v>3355443</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -12827,10 +12827,10 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -12839,10 +12839,10 @@
         <v>1</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -12851,10 +12851,10 @@
         <v>1</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36">
         <v>0</v>
@@ -12863,10 +12863,10 @@
         <v>1</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -12875,10 +12875,10 @@
         <v>1</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -12890,16 +12890,16 @@
       </c>
       <c r="B37">
         <f t="shared" si="1"/>
-        <v>11184810</v>
+        <v>13421772</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -12908,10 +12908,10 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -12920,10 +12920,10 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -12932,10 +12932,10 @@
         <v>0</v>
       </c>
       <c r="P37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37">
         <v>1</v>
@@ -12944,10 +12944,10 @@
         <v>0</v>
       </c>
       <c r="T37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V37">
         <v>1</v>
@@ -12956,10 +12956,10 @@
         <v>0</v>
       </c>
       <c r="X37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z37">
         <v>1</v>
@@ -12971,16 +12971,16 @@
       </c>
       <c r="B38">
         <f t="shared" si="1"/>
-        <v>5592405</v>
+        <v>3355443</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -12989,10 +12989,10 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -13001,10 +13001,10 @@
         <v>1</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -13013,10 +13013,10 @@
         <v>1</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38">
         <v>0</v>
@@ -13025,10 +13025,10 @@
         <v>1</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V38">
         <v>0</v>
@@ -13037,10 +13037,10 @@
         <v>1</v>
       </c>
       <c r="X38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -13052,16 +13052,16 @@
       </c>
       <c r="B39">
         <f t="shared" si="1"/>
-        <v>11184810</v>
+        <v>13421772</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -13070,10 +13070,10 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -13082,10 +13082,10 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -13094,10 +13094,10 @@
         <v>0</v>
       </c>
       <c r="P39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39">
         <v>1</v>
@@ -13106,10 +13106,10 @@
         <v>0</v>
       </c>
       <c r="T39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V39">
         <v>1</v>
@@ -13118,10 +13118,10 @@
         <v>0</v>
       </c>
       <c r="X39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z39">
         <v>1</v>
@@ -13133,16 +13133,16 @@
       </c>
       <c r="B40">
         <f t="shared" si="1"/>
-        <v>5592405</v>
+        <v>3355443</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -13151,10 +13151,10 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -13163,10 +13163,10 @@
         <v>1</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -13175,10 +13175,10 @@
         <v>1</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40">
         <v>0</v>
@@ -13187,10 +13187,10 @@
         <v>1</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -13199,10 +13199,10 @@
         <v>1</v>
       </c>
       <c r="X40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -13214,16 +13214,16 @@
       </c>
       <c r="B41">
         <f t="shared" si="1"/>
-        <v>11184810</v>
+        <v>13421772</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -13232,10 +13232,10 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -13244,10 +13244,10 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -13256,10 +13256,10 @@
         <v>0</v>
       </c>
       <c r="P41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41">
         <v>1</v>
@@ -13268,10 +13268,10 @@
         <v>0</v>
       </c>
       <c r="T41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V41">
         <v>1</v>
@@ -13280,10 +13280,10 @@
         <v>0</v>
       </c>
       <c r="X41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z41">
         <v>1</v>
@@ -13295,16 +13295,16 @@
       </c>
       <c r="B42">
         <f t="shared" si="1"/>
-        <v>5592405</v>
+        <v>3355443</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -13313,10 +13313,10 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -13325,10 +13325,10 @@
         <v>1</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -13337,10 +13337,10 @@
         <v>1</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R42">
         <v>0</v>
@@ -13349,10 +13349,10 @@
         <v>1</v>
       </c>
       <c r="T42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V42">
         <v>0</v>
@@ -13361,10 +13361,10 @@
         <v>1</v>
       </c>
       <c r="X42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -13376,16 +13376,16 @@
       </c>
       <c r="B43">
         <f t="shared" si="1"/>
-        <v>11184810</v>
+        <v>13421772</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -13394,10 +13394,10 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -13406,10 +13406,10 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -13418,10 +13418,10 @@
         <v>0</v>
       </c>
       <c r="P43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43">
         <v>1</v>
@@ -13430,10 +13430,10 @@
         <v>0</v>
       </c>
       <c r="T43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V43">
         <v>1</v>
@@ -13442,10 +13442,10 @@
         <v>0</v>
       </c>
       <c r="X43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z43">
         <v>1</v>
@@ -13457,16 +13457,16 @@
       </c>
       <c r="B44">
         <f t="shared" si="1"/>
-        <v>5592405</v>
+        <v>3355443</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -13475,10 +13475,10 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -13487,10 +13487,10 @@
         <v>1</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -13499,10 +13499,10 @@
         <v>1</v>
       </c>
       <c r="P44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R44">
         <v>0</v>
@@ -13511,10 +13511,10 @@
         <v>1</v>
       </c>
       <c r="T44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V44">
         <v>0</v>
@@ -13523,10 +13523,10 @@
         <v>1</v>
       </c>
       <c r="X44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -13538,16 +13538,16 @@
       </c>
       <c r="B45">
         <f t="shared" si="1"/>
-        <v>11184810</v>
+        <v>13421772</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -13556,10 +13556,10 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -13568,10 +13568,10 @@
         <v>0</v>
       </c>
       <c r="L45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -13580,10 +13580,10 @@
         <v>0</v>
       </c>
       <c r="P45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45">
         <v>1</v>
@@ -13592,10 +13592,10 @@
         <v>0</v>
       </c>
       <c r="T45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45">
         <v>1</v>
@@ -13604,10 +13604,10 @@
         <v>0</v>
       </c>
       <c r="X45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z45">
         <v>1</v>
@@ -13619,16 +13619,16 @@
       </c>
       <c r="B46">
         <f t="shared" si="1"/>
-        <v>5592405</v>
+        <v>3355443</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -13637,10 +13637,10 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -13649,10 +13649,10 @@
         <v>1</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -13661,10 +13661,10 @@
         <v>1</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R46">
         <v>0</v>
@@ -13673,10 +13673,10 @@
         <v>1</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V46">
         <v>0</v>
@@ -13685,10 +13685,10 @@
         <v>1</v>
       </c>
       <c r="X46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -13700,16 +13700,16 @@
       </c>
       <c r="B47">
         <f t="shared" si="1"/>
-        <v>11184810</v>
+        <v>13421772</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -13718,10 +13718,10 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -13730,10 +13730,10 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -13742,10 +13742,10 @@
         <v>0</v>
       </c>
       <c r="P47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47">
         <v>1</v>
@@ -13754,10 +13754,10 @@
         <v>0</v>
       </c>
       <c r="T47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V47">
         <v>1</v>
@@ -13766,10 +13766,10 @@
         <v>0</v>
       </c>
       <c r="X47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z47">
         <v>1</v>
@@ -13781,16 +13781,16 @@
       </c>
       <c r="B48">
         <f t="shared" si="1"/>
-        <v>5592405</v>
+        <v>3355443</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -13799,10 +13799,10 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -13811,10 +13811,10 @@
         <v>1</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -13823,10 +13823,10 @@
         <v>1</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R48">
         <v>0</v>
@@ -13835,10 +13835,10 @@
         <v>1</v>
       </c>
       <c r="T48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V48">
         <v>0</v>
@@ -13847,10 +13847,10 @@
         <v>1</v>
       </c>
       <c r="X48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z48">
         <v>0</v>
@@ -13862,16 +13862,16 @@
       </c>
       <c r="B49">
         <f t="shared" si="1"/>
-        <v>11184810</v>
+        <v>13421772</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -13880,10 +13880,10 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -13892,10 +13892,10 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -13904,10 +13904,10 @@
         <v>0</v>
       </c>
       <c r="P49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49">
         <v>1</v>
@@ -13916,10 +13916,10 @@
         <v>0</v>
       </c>
       <c r="T49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V49">
         <v>1</v>
@@ -13928,10 +13928,10 @@
         <v>0</v>
       </c>
       <c r="X49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z49">
         <v>1</v>
@@ -13943,16 +13943,16 @@
       </c>
       <c r="B50">
         <f t="shared" si="1"/>
-        <v>5592405</v>
+        <v>3355443</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -13961,10 +13961,10 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -13973,10 +13973,10 @@
         <v>1</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -13985,10 +13985,10 @@
         <v>1</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50">
         <v>0</v>
@@ -13997,10 +13997,10 @@
         <v>1</v>
       </c>
       <c r="T50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V50">
         <v>0</v>
@@ -14009,10 +14009,10 @@
         <v>1</v>
       </c>
       <c r="X50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -14024,16 +14024,16 @@
       </c>
       <c r="B51">
         <f t="shared" si="1"/>
-        <v>11184810</v>
+        <v>13421772</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -14042,10 +14042,10 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -14054,10 +14054,10 @@
         <v>0</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -14066,10 +14066,10 @@
         <v>0</v>
       </c>
       <c r="P51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51">
         <v>1</v>
@@ -14078,10 +14078,10 @@
         <v>0</v>
       </c>
       <c r="T51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51">
         <v>1</v>
@@ -14090,10 +14090,10 @@
         <v>0</v>
       </c>
       <c r="X51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z51">
         <v>1</v>
@@ -14105,16 +14105,16 @@
       </c>
       <c r="B52">
         <f t="shared" si="1"/>
-        <v>5592405</v>
+        <v>3355443</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -14123,10 +14123,10 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -14135,10 +14135,10 @@
         <v>1</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -14147,10 +14147,10 @@
         <v>1</v>
       </c>
       <c r="P52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R52">
         <v>0</v>
@@ -14159,10 +14159,10 @@
         <v>1</v>
       </c>
       <c r="T52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V52">
         <v>0</v>
@@ -14171,10 +14171,10 @@
         <v>1</v>
       </c>
       <c r="X52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -14186,16 +14186,16 @@
       </c>
       <c r="B53">
         <f t="shared" si="1"/>
-        <v>11184810</v>
+        <v>13421772</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -14204,10 +14204,10 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -14216,10 +14216,10 @@
         <v>0</v>
       </c>
       <c r="L53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -14228,10 +14228,10 @@
         <v>0</v>
       </c>
       <c r="P53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53">
         <v>1</v>
@@ -14240,10 +14240,10 @@
         <v>0</v>
       </c>
       <c r="T53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V53">
         <v>1</v>
@@ -14252,10 +14252,10 @@
         <v>0</v>
       </c>
       <c r="X53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z53">
         <v>1</v>
@@ -14267,16 +14267,16 @@
       </c>
       <c r="B54">
         <f t="shared" si="1"/>
-        <v>5592405</v>
+        <v>3355443</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -14285,10 +14285,10 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -14297,10 +14297,10 @@
         <v>1</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -14309,10 +14309,10 @@
         <v>1</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R54">
         <v>0</v>
@@ -14321,10 +14321,10 @@
         <v>1</v>
       </c>
       <c r="T54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V54">
         <v>0</v>
@@ -14333,10 +14333,10 @@
         <v>1</v>
       </c>
       <c r="X54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z54">
         <v>0</v>
@@ -14348,16 +14348,16 @@
       </c>
       <c r="B55">
         <f t="shared" si="1"/>
-        <v>11184810</v>
+        <v>13421772</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -14366,10 +14366,10 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -14378,10 +14378,10 @@
         <v>0</v>
       </c>
       <c r="L55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -14390,10 +14390,10 @@
         <v>0</v>
       </c>
       <c r="P55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55">
         <v>1</v>
@@ -14402,10 +14402,10 @@
         <v>0</v>
       </c>
       <c r="T55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V55">
         <v>1</v>
@@ -14414,10 +14414,10 @@
         <v>0</v>
       </c>
       <c r="X55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z55">
         <v>1</v>
@@ -14429,16 +14429,16 @@
       </c>
       <c r="B56">
         <f t="shared" si="1"/>
-        <v>5592405</v>
+        <v>3355443</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -14447,10 +14447,10 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -14459,10 +14459,10 @@
         <v>1</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -14471,10 +14471,10 @@
         <v>1</v>
       </c>
       <c r="P56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R56">
         <v>0</v>
@@ -14483,10 +14483,10 @@
         <v>1</v>
       </c>
       <c r="T56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V56">
         <v>0</v>
@@ -14495,10 +14495,10 @@
         <v>1</v>
       </c>
       <c r="X56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z56">
         <v>0</v>
@@ -14510,16 +14510,16 @@
       </c>
       <c r="B57">
         <f t="shared" si="1"/>
-        <v>11184810</v>
+        <v>13421772</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -14528,10 +14528,10 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -14540,10 +14540,10 @@
         <v>0</v>
       </c>
       <c r="L57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -14552,10 +14552,10 @@
         <v>0</v>
       </c>
       <c r="P57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57">
         <v>1</v>
@@ -14564,10 +14564,10 @@
         <v>0</v>
       </c>
       <c r="T57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V57">
         <v>1</v>
@@ -14576,10 +14576,10 @@
         <v>0</v>
       </c>
       <c r="X57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z57">
         <v>1</v>
@@ -14591,16 +14591,16 @@
       </c>
       <c r="B58">
         <f t="shared" si="1"/>
-        <v>5592405</v>
+        <v>3355443</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -14609,10 +14609,10 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -14621,10 +14621,10 @@
         <v>1</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -14633,10 +14633,10 @@
         <v>1</v>
       </c>
       <c r="P58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58">
         <v>0</v>
@@ -14645,10 +14645,10 @@
         <v>1</v>
       </c>
       <c r="T58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V58">
         <v>0</v>
@@ -14657,10 +14657,10 @@
         <v>1</v>
       </c>
       <c r="X58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -14672,16 +14672,16 @@
       </c>
       <c r="B59">
         <f t="shared" si="1"/>
-        <v>11184810</v>
+        <v>13421772</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -14690,10 +14690,10 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -14702,10 +14702,10 @@
         <v>0</v>
       </c>
       <c r="L59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -14714,10 +14714,10 @@
         <v>0</v>
       </c>
       <c r="P59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R59">
         <v>1</v>
@@ -14726,10 +14726,10 @@
         <v>0</v>
       </c>
       <c r="T59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V59">
         <v>1</v>
@@ -14738,10 +14738,10 @@
         <v>0</v>
       </c>
       <c r="X59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z59">
         <v>1</v>
@@ -14753,16 +14753,16 @@
       </c>
       <c r="B60">
         <f t="shared" si="1"/>
-        <v>5592405</v>
+        <v>3355443</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -14771,10 +14771,10 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -14783,10 +14783,10 @@
         <v>1</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -14795,10 +14795,10 @@
         <v>1</v>
       </c>
       <c r="P60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R60">
         <v>0</v>
@@ -14807,10 +14807,10 @@
         <v>1</v>
       </c>
       <c r="T60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V60">
         <v>0</v>
@@ -14819,10 +14819,10 @@
         <v>1</v>
       </c>
       <c r="X60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z60">
         <v>0</v>
@@ -14834,16 +14834,16 @@
       </c>
       <c r="B61">
         <f t="shared" si="1"/>
-        <v>11184810</v>
+        <v>13421772</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -14852,10 +14852,10 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -14864,10 +14864,10 @@
         <v>0</v>
       </c>
       <c r="L61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -14876,10 +14876,10 @@
         <v>0</v>
       </c>
       <c r="P61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61">
         <v>1</v>
@@ -14888,10 +14888,10 @@
         <v>0</v>
       </c>
       <c r="T61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V61">
         <v>1</v>
@@ -14900,10 +14900,10 @@
         <v>0</v>
       </c>
       <c r="X61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z61">
         <v>1</v>
@@ -14915,16 +14915,16 @@
       </c>
       <c r="B62">
         <f t="shared" si="1"/>
-        <v>5592405</v>
+        <v>3355443</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -14933,10 +14933,10 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -14945,10 +14945,10 @@
         <v>1</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -14957,10 +14957,10 @@
         <v>1</v>
       </c>
       <c r="P62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R62">
         <v>0</v>
@@ -14969,10 +14969,10 @@
         <v>1</v>
       </c>
       <c r="T62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V62">
         <v>0</v>
@@ -14981,1297 +14981,973 @@
         <v>1</v>
       </c>
       <c r="X62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>60</v>
-      </c>
-      <c r="B63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-      <c r="N63">
-        <v>0</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
-      <c r="T63">
-        <v>0</v>
-      </c>
-      <c r="U63">
-        <v>0</v>
-      </c>
-      <c r="V63">
-        <v>0</v>
-      </c>
-      <c r="W63">
-        <v>0</v>
-      </c>
-      <c r="X63">
-        <v>0</v>
-      </c>
-      <c r="Y63">
-        <v>0</v>
-      </c>
-      <c r="Z63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>61</v>
-      </c>
-      <c r="B64">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-      <c r="N64">
-        <v>0</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
-      <c r="R64">
-        <v>0</v>
-      </c>
-      <c r="S64">
-        <v>0</v>
-      </c>
-      <c r="T64">
-        <v>0</v>
-      </c>
-      <c r="U64">
-        <v>0</v>
-      </c>
-      <c r="V64">
-        <v>0</v>
-      </c>
-      <c r="W64">
-        <v>0</v>
-      </c>
-      <c r="X64">
-        <v>0</v>
-      </c>
-      <c r="Y64">
-        <v>0</v>
-      </c>
-      <c r="Z64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>62</v>
-      </c>
-      <c r="B65">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
-      <c r="T65">
-        <v>0</v>
-      </c>
-      <c r="U65">
-        <v>0</v>
-      </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
-      <c r="W65">
-        <v>0</v>
-      </c>
-      <c r="X65">
-        <v>0</v>
-      </c>
-      <c r="Y65">
-        <v>0</v>
-      </c>
-      <c r="Z65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>63</v>
-      </c>
-      <c r="B66">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
-      <c r="T66">
-        <v>0</v>
-      </c>
-      <c r="U66">
-        <v>0</v>
-      </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
-      <c r="W66">
-        <v>0</v>
-      </c>
-      <c r="X66">
-        <v>0</v>
-      </c>
-      <c r="Y66">
-        <v>0</v>
-      </c>
-      <c r="Z66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69">
+        <f>+B3</f>
+        <v>13421772</v>
+      </c>
+      <c r="C69" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" t="str">
+        <f>+CONCATENATE(A69,B69,C69)</f>
+        <v>{"id":  0, "valor":13421772},</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70">
+        <f>+B4</f>
+        <v>3355443</v>
+      </c>
+      <c r="C70" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" ref="D70:D128" si="2">+CONCATENATE(A70,B70,C70)</f>
+        <v>{"id":  1, "valor":3355443},</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71">
+        <f>+B5</f>
+        <v>13421772</v>
+      </c>
+      <c r="C71" t="s">
+        <v>29</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="2"/>
+        <v>{"id":  2, "valor":13421772},</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>32</v>
+      </c>
+      <c r="B72">
+        <f>+B6</f>
+        <v>3355443</v>
+      </c>
+      <c r="C72" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="2"/>
+        <v>{"id":  3, "valor":3355443},</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B73">
-        <f>+B3</f>
-        <v>11184810</v>
+        <f>+B7</f>
+        <v>13421772</v>
       </c>
       <c r="C73" t="s">
         <v>29</v>
       </c>
       <c r="D73" t="str">
-        <f>+CONCATENATE(A73,B73,C73)</f>
-        <v>{"id":  0, "valor":11184810},</v>
-      </c>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>{"id":  4, "valor":13421772},</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B74">
-        <f t="shared" ref="B74:B132" si="2">+B4</f>
-        <v>5592405</v>
+        <f>+B8</f>
+        <v>3355443</v>
       </c>
       <c r="C74" t="s">
         <v>29</v>
       </c>
       <c r="D74" t="str">
-        <f t="shared" ref="D74:D132" si="3">+CONCATENATE(A74,B74,C74)</f>
-        <v>{"id":  1, "valor":5592405},</v>
-      </c>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>{"id":  5, "valor":3355443},</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B75">
-        <f t="shared" si="2"/>
-        <v>11184810</v>
+        <f>+B9</f>
+        <v>13421772</v>
       </c>
       <c r="C75" t="s">
         <v>29</v>
       </c>
       <c r="D75" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id":  2, "valor":11184810},</v>
-      </c>
-    </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>{"id":  6, "valor":13421772},</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B76">
-        <f t="shared" si="2"/>
-        <v>5592405</v>
+        <f>+B10</f>
+        <v>3355443</v>
       </c>
       <c r="C76" t="s">
         <v>29</v>
       </c>
       <c r="D76" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id":  3, "valor":5592405},</v>
-      </c>
-    </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>{"id":  7, "valor":3355443},</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B77">
-        <f t="shared" si="2"/>
-        <v>11184810</v>
+        <f>+B11</f>
+        <v>13421772</v>
       </c>
       <c r="C77" t="s">
         <v>29</v>
       </c>
       <c r="D77" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id":  4, "valor":11184810},</v>
-      </c>
-    </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>{"id":  8, "valor":13421772},</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B78">
-        <f t="shared" si="2"/>
-        <v>5592405</v>
+        <f>+B12</f>
+        <v>3355443</v>
       </c>
       <c r="C78" t="s">
         <v>29</v>
       </c>
       <c r="D78" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id":  5, "valor":5592405},</v>
-      </c>
-    </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>{"id":  9, "valor":3355443},</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B79">
-        <f t="shared" si="2"/>
-        <v>11184810</v>
+        <f>+B13</f>
+        <v>13421772</v>
       </c>
       <c r="C79" t="s">
         <v>29</v>
       </c>
       <c r="D79" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id":  6, "valor":11184810},</v>
-      </c>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>{"id": 10, "valor":13421772},</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B80">
-        <f t="shared" si="2"/>
-        <v>5592405</v>
+        <f>+B14</f>
+        <v>3355443</v>
       </c>
       <c r="C80" t="s">
         <v>29</v>
       </c>
       <c r="D80" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id":  7, "valor":5592405},</v>
+        <f t="shared" si="2"/>
+        <v>{"id": 11, "valor":3355443},</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B81">
-        <f t="shared" si="2"/>
-        <v>11184810</v>
+        <f>+B15</f>
+        <v>13421772</v>
       </c>
       <c r="C81" t="s">
         <v>29</v>
       </c>
       <c r="D81" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id":  8, "valor":11184810},</v>
+        <f t="shared" si="2"/>
+        <v>{"id": 12, "valor":13421772},</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B82">
-        <f t="shared" si="2"/>
-        <v>5592405</v>
+        <f>+B16</f>
+        <v>3355443</v>
       </c>
       <c r="C82" t="s">
         <v>29</v>
       </c>
       <c r="D82" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id":  9, "valor":5592405},</v>
+        <f t="shared" si="2"/>
+        <v>{"id": 13, "valor":3355443},</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B83">
-        <f t="shared" si="2"/>
-        <v>11184810</v>
+        <f>+B17</f>
+        <v>13421772</v>
       </c>
       <c r="C83" t="s">
         <v>29</v>
       </c>
       <c r="D83" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id": 10, "valor":11184810},</v>
+        <f t="shared" si="2"/>
+        <v>{"id": 14, "valor":13421772},</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B84">
-        <f t="shared" si="2"/>
-        <v>5592405</v>
+        <f>+B18</f>
+        <v>3355443</v>
       </c>
       <c r="C84" t="s">
         <v>29</v>
       </c>
       <c r="D84" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id": 11, "valor":5592405},</v>
+        <f t="shared" si="2"/>
+        <v>{"id": 15, "valor":3355443},</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B85">
-        <f t="shared" si="2"/>
-        <v>11184810</v>
+        <f>+B19</f>
+        <v>13421772</v>
       </c>
       <c r="C85" t="s">
         <v>29</v>
       </c>
       <c r="D85" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id": 12, "valor":11184810},</v>
+        <f t="shared" si="2"/>
+        <v>{"id": 16, "valor":13421772},</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B86">
-        <f t="shared" si="2"/>
-        <v>5592405</v>
+        <f>+B20</f>
+        <v>3355443</v>
       </c>
       <c r="C86" t="s">
         <v>29</v>
       </c>
       <c r="D86" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id": 13, "valor":5592405},</v>
+        <f t="shared" si="2"/>
+        <v>{"id": 17, "valor":3355443},</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B87">
-        <f t="shared" si="2"/>
-        <v>11184810</v>
+        <f>+B21</f>
+        <v>13421772</v>
       </c>
       <c r="C87" t="s">
         <v>29</v>
       </c>
       <c r="D87" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id": 14, "valor":11184810},</v>
+        <f t="shared" si="2"/>
+        <v>{"id": 18, "valor":13421772},</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B88">
-        <f t="shared" si="2"/>
-        <v>5592405</v>
+        <f>+B22</f>
+        <v>3355443</v>
       </c>
       <c r="C88" t="s">
         <v>29</v>
       </c>
       <c r="D88" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id": 15, "valor":5592405},</v>
+        <f t="shared" si="2"/>
+        <v>{"id": 19, "valor":3355443},</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B89">
-        <f t="shared" si="2"/>
-        <v>11184810</v>
+        <f>+B23</f>
+        <v>13421772</v>
       </c>
       <c r="C89" t="s">
         <v>29</v>
       </c>
       <c r="D89" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id": 16, "valor":11184810},</v>
+        <f t="shared" si="2"/>
+        <v>{"id": 20, "valor":13421772},</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B90">
-        <f t="shared" si="2"/>
-        <v>5592405</v>
+        <f>+B24</f>
+        <v>3355443</v>
       </c>
       <c r="C90" t="s">
         <v>29</v>
       </c>
       <c r="D90" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id": 17, "valor":5592405},</v>
+        <f t="shared" si="2"/>
+        <v>{"id": 21, "valor":3355443},</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B91">
-        <f t="shared" si="2"/>
-        <v>11184810</v>
+        <f>+B25</f>
+        <v>13421772</v>
       </c>
       <c r="C91" t="s">
         <v>29</v>
       </c>
       <c r="D91" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id": 18, "valor":11184810},</v>
+        <f t="shared" si="2"/>
+        <v>{"id": 22, "valor":13421772},</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B92">
-        <f t="shared" si="2"/>
-        <v>5592405</v>
+        <f>+B26</f>
+        <v>3355443</v>
       </c>
       <c r="C92" t="s">
         <v>29</v>
       </c>
       <c r="D92" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id": 19, "valor":5592405},</v>
+        <f t="shared" si="2"/>
+        <v>{"id": 23, "valor":3355443},</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B93">
-        <f t="shared" si="2"/>
-        <v>11184810</v>
+        <f>+B27</f>
+        <v>13421772</v>
       </c>
       <c r="C93" t="s">
         <v>29</v>
       </c>
       <c r="D93" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id": 20, "valor":11184810},</v>
+        <f t="shared" si="2"/>
+        <v>{"id": 24, "valor":13421772},</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B94">
-        <f t="shared" si="2"/>
-        <v>5592405</v>
+        <f>+B28</f>
+        <v>3355443</v>
       </c>
       <c r="C94" t="s">
         <v>29</v>
       </c>
       <c r="D94" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id": 21, "valor":5592405},</v>
+        <f t="shared" si="2"/>
+        <v>{"id":  25, "valor":3355443},</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B95">
-        <f t="shared" si="2"/>
-        <v>11184810</v>
+        <f>+B29</f>
+        <v>13421772</v>
       </c>
       <c r="C95" t="s">
         <v>29</v>
       </c>
       <c r="D95" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id": 22, "valor":11184810},</v>
+        <f t="shared" si="2"/>
+        <v>{"id":  26, "valor":13421772},</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B96">
-        <f t="shared" si="2"/>
-        <v>5592405</v>
+        <f>+B30</f>
+        <v>3355443</v>
       </c>
       <c r="C96" t="s">
         <v>29</v>
       </c>
       <c r="D96" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id": 23, "valor":5592405},</v>
+        <f t="shared" si="2"/>
+        <v>{"id":  27, "valor":3355443},</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B97">
-        <f t="shared" si="2"/>
-        <v>11184810</v>
+        <f>+B31</f>
+        <v>13421772</v>
       </c>
       <c r="C97" t="s">
         <v>29</v>
       </c>
       <c r="D97" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id": 24, "valor":11184810},</v>
+        <f t="shared" si="2"/>
+        <v>{"id":  28, "valor":13421772},</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B98">
-        <f t="shared" si="2"/>
-        <v>5592405</v>
+        <f>+B32</f>
+        <v>3355443</v>
       </c>
       <c r="C98" t="s">
         <v>29</v>
       </c>
       <c r="D98" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id":  25, "valor":5592405},</v>
+        <f t="shared" si="2"/>
+        <v>{"id":  29, "valor":3355443},</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B99">
-        <f t="shared" si="2"/>
-        <v>11184810</v>
+        <f>+B33</f>
+        <v>13421772</v>
       </c>
       <c r="C99" t="s">
         <v>29</v>
       </c>
       <c r="D99" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id":  26, "valor":11184810},</v>
+        <f t="shared" si="2"/>
+        <v>{"id":  30, "valor":13421772},</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B100">
-        <f t="shared" si="2"/>
-        <v>5592405</v>
+        <f>+B34</f>
+        <v>3355443</v>
       </c>
       <c r="C100" t="s">
         <v>29</v>
       </c>
       <c r="D100" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id":  27, "valor":5592405},</v>
+        <f t="shared" si="2"/>
+        <v>{"id":  31, "valor":3355443},</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B101">
-        <f t="shared" si="2"/>
-        <v>11184810</v>
+        <f>+B35</f>
+        <v>13421772</v>
       </c>
       <c r="C101" t="s">
         <v>29</v>
       </c>
       <c r="D101" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id":  28, "valor":11184810},</v>
+        <f t="shared" si="2"/>
+        <v>{"id":  32, "valor":13421772},</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B102">
-        <f t="shared" si="2"/>
-        <v>5592405</v>
+        <f>+B36</f>
+        <v>3355443</v>
       </c>
       <c r="C102" t="s">
         <v>29</v>
       </c>
       <c r="D102" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id":  29, "valor":5592405},</v>
+        <f t="shared" si="2"/>
+        <v>{"id":  33, "valor":3355443},</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B103">
-        <f t="shared" si="2"/>
-        <v>11184810</v>
+        <f>+B37</f>
+        <v>13421772</v>
       </c>
       <c r="C103" t="s">
         <v>29</v>
       </c>
       <c r="D103" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id":  30, "valor":11184810},</v>
+        <f t="shared" si="2"/>
+        <v>{"id":  34, "valor":13421772},</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B104">
-        <f t="shared" si="2"/>
-        <v>5592405</v>
+        <f>+B38</f>
+        <v>3355443</v>
       </c>
       <c r="C104" t="s">
         <v>29</v>
       </c>
       <c r="D104" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id":  31, "valor":5592405},</v>
+        <f t="shared" si="2"/>
+        <v>{"id":  35, "valor":3355443},</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B105">
-        <f t="shared" si="2"/>
-        <v>11184810</v>
+        <f>+B39</f>
+        <v>13421772</v>
       </c>
       <c r="C105" t="s">
         <v>29</v>
       </c>
       <c r="D105" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id":  32, "valor":11184810},</v>
+        <f t="shared" si="2"/>
+        <v>{"id":  36, "valor":13421772},</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B106">
-        <f t="shared" si="2"/>
-        <v>5592405</v>
+        <f>+B40</f>
+        <v>3355443</v>
       </c>
       <c r="C106" t="s">
         <v>29</v>
       </c>
       <c r="D106" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id":  33, "valor":5592405},</v>
+        <f t="shared" si="2"/>
+        <v>{"id":  37, "valor":3355443},</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B107">
-        <f t="shared" si="2"/>
-        <v>11184810</v>
+        <f>+B41</f>
+        <v>13421772</v>
       </c>
       <c r="C107" t="s">
         <v>29</v>
       </c>
       <c r="D107" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id":  34, "valor":11184810},</v>
+        <f t="shared" si="2"/>
+        <v>{"id":  38, "valor":13421772},</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B108">
-        <f t="shared" si="2"/>
-        <v>5592405</v>
+        <f>+B42</f>
+        <v>3355443</v>
       </c>
       <c r="C108" t="s">
         <v>29</v>
       </c>
       <c r="D108" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id":  35, "valor":5592405},</v>
+        <f t="shared" si="2"/>
+        <v>{"id":  39, "valor":3355443},</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B109">
-        <f t="shared" si="2"/>
-        <v>11184810</v>
+        <f>+B43</f>
+        <v>13421772</v>
       </c>
       <c r="C109" t="s">
         <v>29</v>
       </c>
       <c r="D109" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id":  36, "valor":11184810},</v>
+        <f t="shared" si="2"/>
+        <v>{"id":  40, "valor":13421772},</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B110">
-        <f t="shared" si="2"/>
-        <v>5592405</v>
+        <f>+B44</f>
+        <v>3355443</v>
       </c>
       <c r="C110" t="s">
         <v>29</v>
       </c>
       <c r="D110" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id":  37, "valor":5592405},</v>
+        <f t="shared" si="2"/>
+        <v>{"id":  41, "valor":3355443},</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B111">
-        <f t="shared" si="2"/>
-        <v>11184810</v>
+        <f>+B45</f>
+        <v>13421772</v>
       </c>
       <c r="C111" t="s">
         <v>29</v>
       </c>
       <c r="D111" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id":  38, "valor":11184810},</v>
+        <f t="shared" si="2"/>
+        <v>{"id":  42, "valor":13421772},</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B112">
-        <f t="shared" si="2"/>
-        <v>5592405</v>
+        <f>+B46</f>
+        <v>3355443</v>
       </c>
       <c r="C112" t="s">
         <v>29</v>
       </c>
       <c r="D112" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id":  39, "valor":5592405},</v>
+        <f t="shared" si="2"/>
+        <v>{"id":  43, "valor":3355443},</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B113">
-        <f t="shared" si="2"/>
-        <v>11184810</v>
+        <f>+B47</f>
+        <v>13421772</v>
       </c>
       <c r="C113" t="s">
         <v>29</v>
       </c>
       <c r="D113" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id":  40, "valor":11184810},</v>
+        <f t="shared" si="2"/>
+        <v>{"id":  44, "valor":13421772},</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B114">
-        <f t="shared" si="2"/>
-        <v>5592405</v>
+        <f>+B48</f>
+        <v>3355443</v>
       </c>
       <c r="C114" t="s">
         <v>29</v>
       </c>
       <c r="D114" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id":  41, "valor":5592405},</v>
+        <f t="shared" si="2"/>
+        <v>{"id":  45, "valor":3355443},</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B115">
-        <f t="shared" si="2"/>
-        <v>11184810</v>
+        <f>+B49</f>
+        <v>13421772</v>
       </c>
       <c r="C115" t="s">
         <v>29</v>
       </c>
       <c r="D115" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id":  42, "valor":11184810},</v>
+        <f t="shared" si="2"/>
+        <v>{"id":  46, "valor":13421772},</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B116">
-        <f t="shared" si="2"/>
-        <v>5592405</v>
+        <f>+B50</f>
+        <v>3355443</v>
       </c>
       <c r="C116" t="s">
         <v>29</v>
       </c>
       <c r="D116" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id":  43, "valor":5592405},</v>
+        <f t="shared" si="2"/>
+        <v>{"id":  47, "valor":3355443},</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B117">
-        <f t="shared" si="2"/>
-        <v>11184810</v>
+        <f>+B51</f>
+        <v>13421772</v>
       </c>
       <c r="C117" t="s">
         <v>29</v>
       </c>
       <c r="D117" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id":  44, "valor":11184810},</v>
+        <f t="shared" si="2"/>
+        <v>{"id":  48, "valor":13421772},</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B118">
-        <f t="shared" si="2"/>
-        <v>5592405</v>
+        <f>+B52</f>
+        <v>3355443</v>
       </c>
       <c r="C118" t="s">
         <v>29</v>
       </c>
       <c r="D118" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id":  45, "valor":5592405},</v>
+        <f t="shared" si="2"/>
+        <v>{"id":  49, "valor":3355443},</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B119">
-        <f t="shared" si="2"/>
-        <v>11184810</v>
+        <f>+B53</f>
+        <v>13421772</v>
       </c>
       <c r="C119" t="s">
         <v>29</v>
       </c>
       <c r="D119" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id":  46, "valor":11184810},</v>
+        <f t="shared" si="2"/>
+        <v>{"id":  50, "valor":13421772},</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B120">
-        <f t="shared" si="2"/>
-        <v>5592405</v>
+        <f>+B54</f>
+        <v>3355443</v>
       </c>
       <c r="C120" t="s">
         <v>29</v>
       </c>
       <c r="D120" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id":  47, "valor":5592405},</v>
+        <f t="shared" si="2"/>
+        <v>{"id":  51, "valor":3355443},</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B121">
-        <f t="shared" si="2"/>
-        <v>11184810</v>
+        <f>+B55</f>
+        <v>13421772</v>
       </c>
       <c r="C121" t="s">
         <v>29</v>
       </c>
       <c r="D121" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id":  48, "valor":11184810},</v>
+        <f t="shared" si="2"/>
+        <v>{"id":  52, "valor":13421772},</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B122">
-        <f t="shared" si="2"/>
-        <v>5592405</v>
+        <f>+B56</f>
+        <v>3355443</v>
       </c>
       <c r="C122" t="s">
         <v>29</v>
       </c>
       <c r="D122" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id":  49, "valor":5592405},</v>
+        <f t="shared" si="2"/>
+        <v>{"id":  53, "valor":3355443},</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B123">
-        <f t="shared" si="2"/>
-        <v>11184810</v>
+        <f>+B57</f>
+        <v>13421772</v>
       </c>
       <c r="C123" t="s">
         <v>29</v>
       </c>
       <c r="D123" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id":  50, "valor":11184810},</v>
+        <f t="shared" si="2"/>
+        <v>{"id":  54, "valor":13421772},</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B124">
-        <f t="shared" si="2"/>
-        <v>5592405</v>
+        <f>+B58</f>
+        <v>3355443</v>
       </c>
       <c r="C124" t="s">
         <v>29</v>
       </c>
       <c r="D124" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id":  51, "valor":5592405},</v>
+        <f t="shared" si="2"/>
+        <v>{"id":  55, "valor":3355443},</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B125">
-        <f t="shared" si="2"/>
-        <v>11184810</v>
+        <f>+B59</f>
+        <v>13421772</v>
       </c>
       <c r="C125" t="s">
         <v>29</v>
       </c>
       <c r="D125" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id":  52, "valor":11184810},</v>
+        <f t="shared" si="2"/>
+        <v>{"id":  56, "valor":13421772},</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B126">
-        <f t="shared" si="2"/>
-        <v>5592405</v>
+        <f>+B60</f>
+        <v>3355443</v>
       </c>
       <c r="C126" t="s">
         <v>29</v>
       </c>
       <c r="D126" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id":  53, "valor":5592405},</v>
+        <f t="shared" si="2"/>
+        <v>{"id":  57, "valor":3355443},</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B127">
-        <f t="shared" si="2"/>
-        <v>11184810</v>
+        <f>+B61</f>
+        <v>13421772</v>
       </c>
       <c r="C127" t="s">
         <v>29</v>
       </c>
       <c r="D127" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id":  54, "valor":11184810},</v>
+        <f t="shared" si="2"/>
+        <v>{"id":  58, "valor":13421772},</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B128">
+        <f>+B62</f>
+        <v>3355443</v>
+      </c>
+      <c r="C128" t="s">
+        <v>53</v>
+      </c>
+      <c r="D128" t="str">
         <f t="shared" si="2"/>
-        <v>5592405</v>
-      </c>
-      <c r="C128" t="s">
-        <v>29</v>
-      </c>
-      <c r="D128" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id":  55, "valor":5592405},</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>87</v>
-      </c>
-      <c r="B129">
-        <f t="shared" si="2"/>
-        <v>11184810</v>
-      </c>
-      <c r="C129" t="s">
-        <v>29</v>
-      </c>
-      <c r="D129" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id":  56, "valor":11184810},</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>88</v>
-      </c>
-      <c r="B130">
-        <f t="shared" si="2"/>
-        <v>5592405</v>
-      </c>
-      <c r="C130" t="s">
-        <v>29</v>
-      </c>
-      <c r="D130" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id":  57, "valor":5592405},</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>89</v>
-      </c>
-      <c r="B131">
-        <f t="shared" si="2"/>
-        <v>11184810</v>
-      </c>
-      <c r="C131" t="s">
-        <v>29</v>
-      </c>
-      <c r="D131" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id":  58, "valor":11184810},</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>90</v>
-      </c>
-      <c r="B132">
-        <f t="shared" si="2"/>
-        <v>5592405</v>
-      </c>
-      <c r="C132" t="s">
-        <v>53</v>
-      </c>
-      <c r="D132" t="str">
-        <f t="shared" si="3"/>
-        <v>{"id":  59, "valor":5592405}</v>
+        <v>{"id":  59, "valor":3355443}</v>
       </c>
     </row>
   </sheetData>
@@ -16283,7 +15959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{197AF01B-201F-4D0D-97A9-D4283C274A43}">
   <dimension ref="A1:Z246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+    <sheetView topLeftCell="A207" workbookViewId="0">
       <selection activeCell="D127" sqref="D127:D246"/>
     </sheetView>
   </sheetViews>
@@ -26202,7 +25878,7 @@
         <v>28</v>
       </c>
       <c r="B127">
-        <f>+B3</f>
+        <f t="shared" ref="B127:B158" si="3">+B3</f>
         <v>11184810</v>
       </c>
       <c r="C127" t="s">
@@ -26218,14 +25894,14 @@
         <v>30</v>
       </c>
       <c r="B128">
-        <f>+B4</f>
+        <f t="shared" si="3"/>
         <v>5592405</v>
       </c>
       <c r="C128" t="s">
         <v>29</v>
       </c>
       <c r="D128" t="str">
-        <f t="shared" ref="D128:D186" si="3">+CONCATENATE(A128,B128,C128)</f>
+        <f t="shared" ref="D128:D186" si="4">+CONCATENATE(A128,B128,C128)</f>
         <v>{"id":  1, "valor":5592405},</v>
       </c>
     </row>
@@ -26234,14 +25910,14 @@
         <v>31</v>
       </c>
       <c r="B129">
-        <f>+B5</f>
+        <f t="shared" si="3"/>
         <v>11184810</v>
       </c>
       <c r="C129" t="s">
         <v>29</v>
       </c>
       <c r="D129" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id":  2, "valor":11184810},</v>
       </c>
     </row>
@@ -26250,14 +25926,14 @@
         <v>32</v>
       </c>
       <c r="B130">
-        <f>+B6</f>
+        <f t="shared" si="3"/>
         <v>5592405</v>
       </c>
       <c r="C130" t="s">
         <v>29</v>
       </c>
       <c r="D130" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id":  3, "valor":5592405},</v>
       </c>
     </row>
@@ -26266,14 +25942,14 @@
         <v>33</v>
       </c>
       <c r="B131">
-        <f>+B7</f>
+        <f t="shared" si="3"/>
         <v>11184810</v>
       </c>
       <c r="C131" t="s">
         <v>29</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id":  4, "valor":11184810},</v>
       </c>
     </row>
@@ -26282,14 +25958,14 @@
         <v>34</v>
       </c>
       <c r="B132">
-        <f>+B8</f>
+        <f t="shared" si="3"/>
         <v>5592405</v>
       </c>
       <c r="C132" t="s">
         <v>29</v>
       </c>
       <c r="D132" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id":  5, "valor":5592405},</v>
       </c>
     </row>
@@ -26298,14 +25974,14 @@
         <v>35</v>
       </c>
       <c r="B133">
-        <f>+B9</f>
+        <f t="shared" si="3"/>
         <v>11184810</v>
       </c>
       <c r="C133" t="s">
         <v>29</v>
       </c>
       <c r="D133" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id":  6, "valor":11184810},</v>
       </c>
     </row>
@@ -26314,14 +25990,14 @@
         <v>36</v>
       </c>
       <c r="B134">
-        <f>+B10</f>
+        <f t="shared" si="3"/>
         <v>5592405</v>
       </c>
       <c r="C134" t="s">
         <v>29</v>
       </c>
       <c r="D134" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id":  7, "valor":5592405},</v>
       </c>
     </row>
@@ -26330,14 +26006,14 @@
         <v>37</v>
       </c>
       <c r="B135">
-        <f>+B11</f>
+        <f t="shared" si="3"/>
         <v>11184810</v>
       </c>
       <c r="C135" t="s">
         <v>29</v>
       </c>
       <c r="D135" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id":  8, "valor":11184810},</v>
       </c>
     </row>
@@ -26346,14 +26022,14 @@
         <v>38</v>
       </c>
       <c r="B136">
-        <f>+B12</f>
+        <f t="shared" si="3"/>
         <v>5592405</v>
       </c>
       <c r="C136" t="s">
         <v>29</v>
       </c>
       <c r="D136" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id":  9, "valor":5592405},</v>
       </c>
     </row>
@@ -26362,14 +26038,14 @@
         <v>39</v>
       </c>
       <c r="B137">
-        <f>+B13</f>
+        <f t="shared" si="3"/>
         <v>11184810</v>
       </c>
       <c r="C137" t="s">
         <v>29</v>
       </c>
       <c r="D137" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 10, "valor":11184810},</v>
       </c>
     </row>
@@ -26378,14 +26054,14 @@
         <v>40</v>
       </c>
       <c r="B138">
-        <f>+B14</f>
+        <f t="shared" si="3"/>
         <v>5592405</v>
       </c>
       <c r="C138" t="s">
         <v>29</v>
       </c>
       <c r="D138" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 11, "valor":5592405},</v>
       </c>
     </row>
@@ -26394,14 +26070,14 @@
         <v>41</v>
       </c>
       <c r="B139">
-        <f>+B15</f>
+        <f t="shared" si="3"/>
         <v>11184810</v>
       </c>
       <c r="C139" t="s">
         <v>29</v>
       </c>
       <c r="D139" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 12, "valor":11184810},</v>
       </c>
     </row>
@@ -26410,14 +26086,14 @@
         <v>42</v>
       </c>
       <c r="B140">
-        <f>+B16</f>
+        <f t="shared" si="3"/>
         <v>5592405</v>
       </c>
       <c r="C140" t="s">
         <v>29</v>
       </c>
       <c r="D140" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 13, "valor":5592405},</v>
       </c>
     </row>
@@ -26426,14 +26102,14 @@
         <v>43</v>
       </c>
       <c r="B141">
-        <f>+B17</f>
+        <f t="shared" si="3"/>
         <v>11184810</v>
       </c>
       <c r="C141" t="s">
         <v>29</v>
       </c>
       <c r="D141" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 14, "valor":11184810},</v>
       </c>
     </row>
@@ -26442,14 +26118,14 @@
         <v>44</v>
       </c>
       <c r="B142">
-        <f>+B18</f>
+        <f t="shared" si="3"/>
         <v>5592405</v>
       </c>
       <c r="C142" t="s">
         <v>29</v>
       </c>
       <c r="D142" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 15, "valor":5592405},</v>
       </c>
     </row>
@@ -26458,14 +26134,14 @@
         <v>45</v>
       </c>
       <c r="B143">
-        <f>+B19</f>
+        <f t="shared" si="3"/>
         <v>11184810</v>
       </c>
       <c r="C143" t="s">
         <v>29</v>
       </c>
       <c r="D143" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 16, "valor":11184810},</v>
       </c>
     </row>
@@ -26474,14 +26150,14 @@
         <v>46</v>
       </c>
       <c r="B144">
-        <f>+B20</f>
+        <f t="shared" si="3"/>
         <v>5592405</v>
       </c>
       <c r="C144" t="s">
         <v>29</v>
       </c>
       <c r="D144" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 17, "valor":5592405},</v>
       </c>
     </row>
@@ -26490,14 +26166,14 @@
         <v>47</v>
       </c>
       <c r="B145">
-        <f>+B21</f>
+        <f t="shared" si="3"/>
         <v>11184810</v>
       </c>
       <c r="C145" t="s">
         <v>29</v>
       </c>
       <c r="D145" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 18, "valor":11184810},</v>
       </c>
     </row>
@@ -26506,14 +26182,14 @@
         <v>48</v>
       </c>
       <c r="B146">
-        <f>+B22</f>
+        <f t="shared" si="3"/>
         <v>5592405</v>
       </c>
       <c r="C146" t="s">
         <v>29</v>
       </c>
       <c r="D146" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 19, "valor":5592405},</v>
       </c>
     </row>
@@ -26522,14 +26198,14 @@
         <v>49</v>
       </c>
       <c r="B147">
-        <f>+B23</f>
+        <f t="shared" si="3"/>
         <v>11184810</v>
       </c>
       <c r="C147" t="s">
         <v>29</v>
       </c>
       <c r="D147" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 20, "valor":11184810},</v>
       </c>
     </row>
@@ -26538,14 +26214,14 @@
         <v>50</v>
       </c>
       <c r="B148">
-        <f>+B24</f>
+        <f t="shared" si="3"/>
         <v>5592405</v>
       </c>
       <c r="C148" t="s">
         <v>29</v>
       </c>
       <c r="D148" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 21, "valor":5592405},</v>
       </c>
     </row>
@@ -26554,14 +26230,14 @@
         <v>51</v>
       </c>
       <c r="B149">
-        <f>+B25</f>
+        <f t="shared" si="3"/>
         <v>11184810</v>
       </c>
       <c r="C149" t="s">
         <v>29</v>
       </c>
       <c r="D149" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 22, "valor":11184810},</v>
       </c>
     </row>
@@ -26570,14 +26246,14 @@
         <v>52</v>
       </c>
       <c r="B150">
-        <f>+B26</f>
+        <f t="shared" si="3"/>
         <v>5592405</v>
       </c>
       <c r="C150" t="s">
         <v>29</v>
       </c>
       <c r="D150" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 23, "valor":5592405},</v>
       </c>
     </row>
@@ -26586,14 +26262,14 @@
         <v>55</v>
       </c>
       <c r="B151">
-        <f>+B27</f>
+        <f t="shared" si="3"/>
         <v>11184810</v>
       </c>
       <c r="C151" t="s">
         <v>29</v>
       </c>
       <c r="D151" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 24, "valor":11184810},</v>
       </c>
     </row>
@@ -26602,14 +26278,14 @@
         <v>92</v>
       </c>
       <c r="B152">
-        <f>+B28</f>
+        <f t="shared" si="3"/>
         <v>5592405</v>
       </c>
       <c r="C152" t="s">
         <v>29</v>
       </c>
       <c r="D152" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 25, "valor":5592405},</v>
       </c>
     </row>
@@ -26618,14 +26294,14 @@
         <v>93</v>
       </c>
       <c r="B153">
-        <f>+B29</f>
+        <f t="shared" si="3"/>
         <v>11184810</v>
       </c>
       <c r="C153" t="s">
         <v>29</v>
       </c>
       <c r="D153" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 26, "valor":11184810},</v>
       </c>
     </row>
@@ -26634,14 +26310,14 @@
         <v>94</v>
       </c>
       <c r="B154">
-        <f>+B30</f>
+        <f t="shared" si="3"/>
         <v>5592405</v>
       </c>
       <c r="C154" t="s">
         <v>29</v>
       </c>
       <c r="D154" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 27, "valor":5592405},</v>
       </c>
     </row>
@@ -26650,14 +26326,14 @@
         <v>95</v>
       </c>
       <c r="B155">
-        <f>+B31</f>
+        <f t="shared" si="3"/>
         <v>11184810</v>
       </c>
       <c r="C155" t="s">
         <v>29</v>
       </c>
       <c r="D155" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 28, "valor":11184810},</v>
       </c>
     </row>
@@ -26666,14 +26342,14 @@
         <v>96</v>
       </c>
       <c r="B156">
-        <f>+B32</f>
+        <f t="shared" si="3"/>
         <v>5592405</v>
       </c>
       <c r="C156" t="s">
         <v>29</v>
       </c>
       <c r="D156" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 29, "valor":5592405},</v>
       </c>
     </row>
@@ -26682,14 +26358,14 @@
         <v>97</v>
       </c>
       <c r="B157">
-        <f>+B33</f>
+        <f t="shared" si="3"/>
         <v>11184810</v>
       </c>
       <c r="C157" t="s">
         <v>29</v>
       </c>
       <c r="D157" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 30, "valor":11184810},</v>
       </c>
     </row>
@@ -26698,14 +26374,14 @@
         <v>98</v>
       </c>
       <c r="B158">
-        <f>+B34</f>
+        <f t="shared" si="3"/>
         <v>5592405</v>
       </c>
       <c r="C158" t="s">
         <v>29</v>
       </c>
       <c r="D158" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 31, "valor":5592405},</v>
       </c>
     </row>
@@ -26714,14 +26390,14 @@
         <v>99</v>
       </c>
       <c r="B159">
-        <f>+B35</f>
+        <f t="shared" ref="B159:B190" si="5">+B35</f>
         <v>11184810</v>
       </c>
       <c r="C159" t="s">
         <v>29</v>
       </c>
       <c r="D159" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 32, "valor":11184810},</v>
       </c>
     </row>
@@ -26730,14 +26406,14 @@
         <v>100</v>
       </c>
       <c r="B160">
-        <f>+B36</f>
+        <f t="shared" si="5"/>
         <v>5592405</v>
       </c>
       <c r="C160" t="s">
         <v>29</v>
       </c>
       <c r="D160" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 33, "valor":5592405},</v>
       </c>
     </row>
@@ -26746,14 +26422,14 @@
         <v>101</v>
       </c>
       <c r="B161">
-        <f>+B37</f>
+        <f t="shared" si="5"/>
         <v>11184810</v>
       </c>
       <c r="C161" t="s">
         <v>29</v>
       </c>
       <c r="D161" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 34, "valor":11184810},</v>
       </c>
     </row>
@@ -26762,14 +26438,14 @@
         <v>102</v>
       </c>
       <c r="B162">
-        <f>+B38</f>
+        <f t="shared" si="5"/>
         <v>5592405</v>
       </c>
       <c r="C162" t="s">
         <v>29</v>
       </c>
       <c r="D162" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 35, "valor":5592405},</v>
       </c>
     </row>
@@ -26778,14 +26454,14 @@
         <v>103</v>
       </c>
       <c r="B163">
-        <f>+B39</f>
+        <f t="shared" si="5"/>
         <v>11184810</v>
       </c>
       <c r="C163" t="s">
         <v>29</v>
       </c>
       <c r="D163" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 36, "valor":11184810},</v>
       </c>
     </row>
@@ -26794,14 +26470,14 @@
         <v>104</v>
       </c>
       <c r="B164">
-        <f>+B40</f>
+        <f t="shared" si="5"/>
         <v>5592405</v>
       </c>
       <c r="C164" t="s">
         <v>29</v>
       </c>
       <c r="D164" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 37, "valor":5592405},</v>
       </c>
     </row>
@@ -26810,14 +26486,14 @@
         <v>105</v>
       </c>
       <c r="B165">
-        <f>+B41</f>
+        <f t="shared" si="5"/>
         <v>11184810</v>
       </c>
       <c r="C165" t="s">
         <v>29</v>
       </c>
       <c r="D165" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 38, "valor":11184810},</v>
       </c>
     </row>
@@ -26826,14 +26502,14 @@
         <v>106</v>
       </c>
       <c r="B166">
-        <f>+B42</f>
+        <f t="shared" si="5"/>
         <v>5592405</v>
       </c>
       <c r="C166" t="s">
         <v>29</v>
       </c>
       <c r="D166" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 39, "valor":5592405},</v>
       </c>
     </row>
@@ -26842,14 +26518,14 @@
         <v>107</v>
       </c>
       <c r="B167">
-        <f>+B43</f>
+        <f t="shared" si="5"/>
         <v>11184810</v>
       </c>
       <c r="C167" t="s">
         <v>29</v>
       </c>
       <c r="D167" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 40, "valor":11184810},</v>
       </c>
     </row>
@@ -26858,14 +26534,14 @@
         <v>108</v>
       </c>
       <c r="B168">
-        <f>+B44</f>
+        <f t="shared" si="5"/>
         <v>5592405</v>
       </c>
       <c r="C168" t="s">
         <v>29</v>
       </c>
       <c r="D168" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 41, "valor":5592405},</v>
       </c>
     </row>
@@ -26874,14 +26550,14 @@
         <v>109</v>
       </c>
       <c r="B169">
-        <f>+B45</f>
+        <f t="shared" si="5"/>
         <v>11184810</v>
       </c>
       <c r="C169" t="s">
         <v>29</v>
       </c>
       <c r="D169" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 42, "valor":11184810},</v>
       </c>
     </row>
@@ -26890,14 +26566,14 @@
         <v>110</v>
       </c>
       <c r="B170">
-        <f>+B46</f>
+        <f t="shared" si="5"/>
         <v>5592405</v>
       </c>
       <c r="C170" t="s">
         <v>29</v>
       </c>
       <c r="D170" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 43, "valor":5592405},</v>
       </c>
     </row>
@@ -26906,14 +26582,14 @@
         <v>111</v>
       </c>
       <c r="B171">
-        <f>+B47</f>
+        <f t="shared" si="5"/>
         <v>11184810</v>
       </c>
       <c r="C171" t="s">
         <v>29</v>
       </c>
       <c r="D171" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 44, "valor":11184810},</v>
       </c>
     </row>
@@ -26922,14 +26598,14 @@
         <v>112</v>
       </c>
       <c r="B172">
-        <f>+B48</f>
+        <f t="shared" si="5"/>
         <v>5592405</v>
       </c>
       <c r="C172" t="s">
         <v>29</v>
       </c>
       <c r="D172" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 45, "valor":5592405},</v>
       </c>
     </row>
@@ -26938,14 +26614,14 @@
         <v>113</v>
       </c>
       <c r="B173">
-        <f>+B49</f>
+        <f t="shared" si="5"/>
         <v>11184810</v>
       </c>
       <c r="C173" t="s">
         <v>29</v>
       </c>
       <c r="D173" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 46, "valor":11184810},</v>
       </c>
     </row>
@@ -26954,14 +26630,14 @@
         <v>114</v>
       </c>
       <c r="B174">
-        <f>+B50</f>
+        <f t="shared" si="5"/>
         <v>5592405</v>
       </c>
       <c r="C174" t="s">
         <v>29</v>
       </c>
       <c r="D174" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 47, "valor":5592405},</v>
       </c>
     </row>
@@ -26970,14 +26646,14 @@
         <v>115</v>
       </c>
       <c r="B175">
-        <f>+B51</f>
+        <f t="shared" si="5"/>
         <v>11184810</v>
       </c>
       <c r="C175" t="s">
         <v>29</v>
       </c>
       <c r="D175" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 48, "valor":11184810},</v>
       </c>
     </row>
@@ -26986,14 +26662,14 @@
         <v>116</v>
       </c>
       <c r="B176">
-        <f>+B52</f>
+        <f t="shared" si="5"/>
         <v>5592405</v>
       </c>
       <c r="C176" t="s">
         <v>29</v>
       </c>
       <c r="D176" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 49, "valor":5592405},</v>
       </c>
     </row>
@@ -27002,14 +26678,14 @@
         <v>117</v>
       </c>
       <c r="B177">
-        <f>+B53</f>
+        <f t="shared" si="5"/>
         <v>11184810</v>
       </c>
       <c r="C177" t="s">
         <v>29</v>
       </c>
       <c r="D177" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 50, "valor":11184810},</v>
       </c>
     </row>
@@ -27018,14 +26694,14 @@
         <v>118</v>
       </c>
       <c r="B178">
-        <f>+B54</f>
+        <f t="shared" si="5"/>
         <v>5592405</v>
       </c>
       <c r="C178" t="s">
         <v>29</v>
       </c>
       <c r="D178" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 51, "valor":5592405},</v>
       </c>
     </row>
@@ -27034,14 +26710,14 @@
         <v>119</v>
       </c>
       <c r="B179">
-        <f>+B55</f>
+        <f t="shared" si="5"/>
         <v>11184810</v>
       </c>
       <c r="C179" t="s">
         <v>29</v>
       </c>
       <c r="D179" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 52, "valor":11184810},</v>
       </c>
     </row>
@@ -27050,14 +26726,14 @@
         <v>120</v>
       </c>
       <c r="B180">
-        <f>+B56</f>
+        <f t="shared" si="5"/>
         <v>5592405</v>
       </c>
       <c r="C180" t="s">
         <v>29</v>
       </c>
       <c r="D180" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 53, "valor":5592405},</v>
       </c>
     </row>
@@ -27066,14 +26742,14 @@
         <v>121</v>
       </c>
       <c r="B181">
-        <f>+B57</f>
+        <f t="shared" si="5"/>
         <v>11184810</v>
       </c>
       <c r="C181" t="s">
         <v>29</v>
       </c>
       <c r="D181" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 54, "valor":11184810},</v>
       </c>
     </row>
@@ -27082,14 +26758,14 @@
         <v>122</v>
       </c>
       <c r="B182">
-        <f>+B58</f>
+        <f t="shared" si="5"/>
         <v>5592405</v>
       </c>
       <c r="C182" t="s">
         <v>29</v>
       </c>
       <c r="D182" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 55, "valor":5592405},</v>
       </c>
     </row>
@@ -27098,14 +26774,14 @@
         <v>123</v>
       </c>
       <c r="B183">
-        <f>+B59</f>
+        <f t="shared" si="5"/>
         <v>11184810</v>
       </c>
       <c r="C183" t="s">
         <v>29</v>
       </c>
       <c r="D183" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 56, "valor":11184810},</v>
       </c>
     </row>
@@ -27114,14 +26790,14 @@
         <v>124</v>
       </c>
       <c r="B184">
-        <f>+B60</f>
+        <f t="shared" si="5"/>
         <v>5592405</v>
       </c>
       <c r="C184" t="s">
         <v>29</v>
       </c>
       <c r="D184" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 57, "valor":5592405},</v>
       </c>
     </row>
@@ -27130,14 +26806,14 @@
         <v>125</v>
       </c>
       <c r="B185">
-        <f>+B61</f>
+        <f t="shared" si="5"/>
         <v>11184810</v>
       </c>
       <c r="C185" t="s">
         <v>29</v>
       </c>
       <c r="D185" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 58, "valor":11184810},</v>
       </c>
     </row>
@@ -27146,14 +26822,14 @@
         <v>126</v>
       </c>
       <c r="B186">
-        <f>+B62</f>
+        <f t="shared" si="5"/>
         <v>5592405</v>
       </c>
       <c r="C186" t="s">
         <v>29</v>
       </c>
       <c r="D186" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"id": 59, "valor":5592405},</v>
       </c>
     </row>
@@ -27162,14 +26838,14 @@
         <v>127</v>
       </c>
       <c r="B187">
-        <f t="shared" ref="B187:B246" si="4">+B63</f>
+        <f t="shared" ref="B187:B246" si="6">+B63</f>
         <v>11184810</v>
       </c>
       <c r="C187" t="s">
         <v>29</v>
       </c>
       <c r="D187" t="str">
-        <f t="shared" ref="D187:D246" si="5">+CONCATENATE(A187,B187,C187)</f>
+        <f t="shared" ref="D187:D246" si="7">+CONCATENATE(A187,B187,C187)</f>
         <v>{"id": 60, "valor":11184810},</v>
       </c>
     </row>
@@ -27178,14 +26854,14 @@
         <v>128</v>
       </c>
       <c r="B188">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5592405</v>
       </c>
       <c r="C188" t="s">
         <v>29</v>
       </c>
       <c r="D188" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 61, "valor":5592405},</v>
       </c>
     </row>
@@ -27194,14 +26870,14 @@
         <v>129</v>
       </c>
       <c r="B189">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11184810</v>
       </c>
       <c r="C189" t="s">
         <v>29</v>
       </c>
       <c r="D189" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 62, "valor":11184810},</v>
       </c>
     </row>
@@ -27210,14 +26886,14 @@
         <v>130</v>
       </c>
       <c r="B190">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5592405</v>
       </c>
       <c r="C190" t="s">
         <v>29</v>
       </c>
       <c r="D190" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 63, "valor":5592405},</v>
       </c>
     </row>
@@ -27226,14 +26902,14 @@
         <v>131</v>
       </c>
       <c r="B191">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11184810</v>
       </c>
       <c r="C191" t="s">
         <v>29</v>
       </c>
       <c r="D191" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 64, "valor":11184810},</v>
       </c>
     </row>
@@ -27242,14 +26918,14 @@
         <v>132</v>
       </c>
       <c r="B192">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5592405</v>
       </c>
       <c r="C192" t="s">
         <v>29</v>
       </c>
       <c r="D192" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 65, "valor":5592405},</v>
       </c>
     </row>
@@ -27258,14 +26934,14 @@
         <v>133</v>
       </c>
       <c r="B193">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11184810</v>
       </c>
       <c r="C193" t="s">
         <v>29</v>
       </c>
       <c r="D193" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 66, "valor":11184810},</v>
       </c>
     </row>
@@ -27274,14 +26950,14 @@
         <v>134</v>
       </c>
       <c r="B194">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5592405</v>
       </c>
       <c r="C194" t="s">
         <v>29</v>
       </c>
       <c r="D194" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 67, "valor":5592405},</v>
       </c>
     </row>
@@ -27290,14 +26966,14 @@
         <v>135</v>
       </c>
       <c r="B195">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11184810</v>
       </c>
       <c r="C195" t="s">
         <v>29</v>
       </c>
       <c r="D195" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 68, "valor":11184810},</v>
       </c>
     </row>
@@ -27306,14 +26982,14 @@
         <v>136</v>
       </c>
       <c r="B196">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5592405</v>
       </c>
       <c r="C196" t="s">
         <v>29</v>
       </c>
       <c r="D196" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 69, "valor":5592405},</v>
       </c>
     </row>
@@ -27322,14 +26998,14 @@
         <v>137</v>
       </c>
       <c r="B197">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11184810</v>
       </c>
       <c r="C197" t="s">
         <v>29</v>
       </c>
       <c r="D197" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 70, "valor":11184810},</v>
       </c>
     </row>
@@ -27338,14 +27014,14 @@
         <v>138</v>
       </c>
       <c r="B198">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5592405</v>
       </c>
       <c r="C198" t="s">
         <v>29</v>
       </c>
       <c r="D198" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 71, "valor":5592405},</v>
       </c>
     </row>
@@ -27354,14 +27030,14 @@
         <v>139</v>
       </c>
       <c r="B199">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11184810</v>
       </c>
       <c r="C199" t="s">
         <v>29</v>
       </c>
       <c r="D199" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 72, "valor":11184810},</v>
       </c>
     </row>
@@ -27370,14 +27046,14 @@
         <v>140</v>
       </c>
       <c r="B200">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5592405</v>
       </c>
       <c r="C200" t="s">
         <v>29</v>
       </c>
       <c r="D200" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 73, "valor":5592405},</v>
       </c>
     </row>
@@ -27386,14 +27062,14 @@
         <v>141</v>
       </c>
       <c r="B201">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11184810</v>
       </c>
       <c r="C201" t="s">
         <v>29</v>
       </c>
       <c r="D201" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 74, "valor":11184810},</v>
       </c>
     </row>
@@ -27402,14 +27078,14 @@
         <v>142</v>
       </c>
       <c r="B202">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5592405</v>
       </c>
       <c r="C202" t="s">
         <v>29</v>
       </c>
       <c r="D202" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 75, "valor":5592405},</v>
       </c>
     </row>
@@ -27418,14 +27094,14 @@
         <v>143</v>
       </c>
       <c r="B203">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11184810</v>
       </c>
       <c r="C203" t="s">
         <v>29</v>
       </c>
       <c r="D203" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 76, "valor":11184810},</v>
       </c>
     </row>
@@ -27434,14 +27110,14 @@
         <v>144</v>
       </c>
       <c r="B204">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5592405</v>
       </c>
       <c r="C204" t="s">
         <v>29</v>
       </c>
       <c r="D204" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 77, "valor":5592405},</v>
       </c>
     </row>
@@ -27450,14 +27126,14 @@
         <v>145</v>
       </c>
       <c r="B205">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11184810</v>
       </c>
       <c r="C205" t="s">
         <v>29</v>
       </c>
       <c r="D205" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 78, "valor":11184810},</v>
       </c>
     </row>
@@ -27466,14 +27142,14 @@
         <v>146</v>
       </c>
       <c r="B206">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5592405</v>
       </c>
       <c r="C206" t="s">
         <v>29</v>
       </c>
       <c r="D206" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 79, "valor":5592405},</v>
       </c>
     </row>
@@ -27482,14 +27158,14 @@
         <v>147</v>
       </c>
       <c r="B207">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11184810</v>
       </c>
       <c r="C207" t="s">
         <v>29</v>
       </c>
       <c r="D207" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 80, "valor":11184810},</v>
       </c>
     </row>
@@ -27498,14 +27174,14 @@
         <v>148</v>
       </c>
       <c r="B208">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5592405</v>
       </c>
       <c r="C208" t="s">
         <v>29</v>
       </c>
       <c r="D208" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 81, "valor":5592405},</v>
       </c>
     </row>
@@ -27514,14 +27190,14 @@
         <v>149</v>
       </c>
       <c r="B209">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11184810</v>
       </c>
       <c r="C209" t="s">
         <v>29</v>
       </c>
       <c r="D209" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 82, "valor":11184810},</v>
       </c>
     </row>
@@ -27530,14 +27206,14 @@
         <v>150</v>
       </c>
       <c r="B210">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5592405</v>
       </c>
       <c r="C210" t="s">
         <v>29</v>
       </c>
       <c r="D210" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 83, "valor":5592405},</v>
       </c>
     </row>
@@ -27546,14 +27222,14 @@
         <v>151</v>
       </c>
       <c r="B211">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11184810</v>
       </c>
       <c r="C211" t="s">
         <v>29</v>
       </c>
       <c r="D211" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 84, "valor":11184810},</v>
       </c>
     </row>
@@ -27562,14 +27238,14 @@
         <v>152</v>
       </c>
       <c r="B212">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5592405</v>
       </c>
       <c r="C212" t="s">
         <v>29</v>
       </c>
       <c r="D212" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 85, "valor":5592405},</v>
       </c>
     </row>
@@ -27578,14 +27254,14 @@
         <v>153</v>
       </c>
       <c r="B213">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11184810</v>
       </c>
       <c r="C213" t="s">
         <v>29</v>
       </c>
       <c r="D213" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 86, "valor":11184810},</v>
       </c>
     </row>
@@ -27594,14 +27270,14 @@
         <v>154</v>
       </c>
       <c r="B214">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5592405</v>
       </c>
       <c r="C214" t="s">
         <v>29</v>
       </c>
       <c r="D214" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 87, "valor":5592405},</v>
       </c>
     </row>
@@ -27610,14 +27286,14 @@
         <v>155</v>
       </c>
       <c r="B215">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11184810</v>
       </c>
       <c r="C215" t="s">
         <v>29</v>
       </c>
       <c r="D215" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 88, "valor":11184810},</v>
       </c>
     </row>
@@ -27626,14 +27302,14 @@
         <v>156</v>
       </c>
       <c r="B216">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5592405</v>
       </c>
       <c r="C216" t="s">
         <v>29</v>
       </c>
       <c r="D216" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 89, "valor":5592405},</v>
       </c>
     </row>
@@ -27642,14 +27318,14 @@
         <v>157</v>
       </c>
       <c r="B217">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11184810</v>
       </c>
       <c r="C217" t="s">
         <v>29</v>
       </c>
       <c r="D217" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 90, "valor":11184810},</v>
       </c>
     </row>
@@ -27658,14 +27334,14 @@
         <v>158</v>
       </c>
       <c r="B218">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5592405</v>
       </c>
       <c r="C218" t="s">
         <v>29</v>
       </c>
       <c r="D218" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 91, "valor":5592405},</v>
       </c>
     </row>
@@ -27674,14 +27350,14 @@
         <v>159</v>
       </c>
       <c r="B219">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11184810</v>
       </c>
       <c r="C219" t="s">
         <v>29</v>
       </c>
       <c r="D219" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 92, "valor":11184810},</v>
       </c>
     </row>
@@ -27690,14 +27366,14 @@
         <v>160</v>
       </c>
       <c r="B220">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5592405</v>
       </c>
       <c r="C220" t="s">
         <v>29</v>
       </c>
       <c r="D220" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 93, "valor":5592405},</v>
       </c>
     </row>
@@ -27706,14 +27382,14 @@
         <v>161</v>
       </c>
       <c r="B221">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11184810</v>
       </c>
       <c r="C221" t="s">
         <v>29</v>
       </c>
       <c r="D221" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 94, "valor":11184810},</v>
       </c>
     </row>
@@ -27722,14 +27398,14 @@
         <v>162</v>
       </c>
       <c r="B222">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5592405</v>
       </c>
       <c r="C222" t="s">
         <v>29</v>
       </c>
       <c r="D222" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 95, "valor":5592405},</v>
       </c>
     </row>
@@ -27738,14 +27414,14 @@
         <v>163</v>
       </c>
       <c r="B223">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11184810</v>
       </c>
       <c r="C223" t="s">
         <v>29</v>
       </c>
       <c r="D223" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 96, "valor":11184810},</v>
       </c>
     </row>
@@ -27754,14 +27430,14 @@
         <v>164</v>
       </c>
       <c r="B224">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5592405</v>
       </c>
       <c r="C224" t="s">
         <v>29</v>
       </c>
       <c r="D224" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 97, "valor":5592405},</v>
       </c>
     </row>
@@ -27770,14 +27446,14 @@
         <v>165</v>
       </c>
       <c r="B225">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11184810</v>
       </c>
       <c r="C225" t="s">
         <v>29</v>
       </c>
       <c r="D225" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 98, "valor":11184810},</v>
       </c>
     </row>
@@ -27786,14 +27462,14 @@
         <v>166</v>
       </c>
       <c r="B226">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5592405</v>
       </c>
       <c r="C226" t="s">
         <v>29</v>
       </c>
       <c r="D226" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 99, "valor":5592405},</v>
       </c>
     </row>
@@ -27802,14 +27478,14 @@
         <v>167</v>
       </c>
       <c r="B227">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11184810</v>
       </c>
       <c r="C227" t="s">
         <v>29</v>
       </c>
       <c r="D227" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 100, "valor":11184810},</v>
       </c>
     </row>
@@ -27818,14 +27494,14 @@
         <v>168</v>
       </c>
       <c r="B228">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5592405</v>
       </c>
       <c r="C228" t="s">
         <v>29</v>
       </c>
       <c r="D228" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 101, "valor":5592405},</v>
       </c>
     </row>
@@ -27834,14 +27510,14 @@
         <v>169</v>
       </c>
       <c r="B229">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11184810</v>
       </c>
       <c r="C229" t="s">
         <v>29</v>
       </c>
       <c r="D229" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 102, "valor":11184810},</v>
       </c>
     </row>
@@ -27850,14 +27526,14 @@
         <v>170</v>
       </c>
       <c r="B230">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5592405</v>
       </c>
       <c r="C230" t="s">
         <v>29</v>
       </c>
       <c r="D230" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 103, "valor":5592405},</v>
       </c>
     </row>
@@ -27866,14 +27542,14 @@
         <v>171</v>
       </c>
       <c r="B231">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11184810</v>
       </c>
       <c r="C231" t="s">
         <v>29</v>
       </c>
       <c r="D231" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 104, "valor":11184810},</v>
       </c>
     </row>
@@ -27882,14 +27558,14 @@
         <v>172</v>
       </c>
       <c r="B232">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5592405</v>
       </c>
       <c r="C232" t="s">
         <v>29</v>
       </c>
       <c r="D232" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 105, "valor":5592405},</v>
       </c>
     </row>
@@ -27898,14 +27574,14 @@
         <v>173</v>
       </c>
       <c r="B233">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11184810</v>
       </c>
       <c r="C233" t="s">
         <v>29</v>
       </c>
       <c r="D233" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 106, "valor":11184810},</v>
       </c>
     </row>
@@ -27914,14 +27590,14 @@
         <v>174</v>
       </c>
       <c r="B234">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5592405</v>
       </c>
       <c r="C234" t="s">
         <v>29</v>
       </c>
       <c r="D234" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 107, "valor":5592405},</v>
       </c>
     </row>
@@ -27930,14 +27606,14 @@
         <v>175</v>
       </c>
       <c r="B235">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11184810</v>
       </c>
       <c r="C235" t="s">
         <v>29</v>
       </c>
       <c r="D235" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 108, "valor":11184810},</v>
       </c>
     </row>
@@ -27946,14 +27622,14 @@
         <v>176</v>
       </c>
       <c r="B236">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5592405</v>
       </c>
       <c r="C236" t="s">
         <v>29</v>
       </c>
       <c r="D236" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 109, "valor":5592405},</v>
       </c>
     </row>
@@ -27962,14 +27638,14 @@
         <v>177</v>
       </c>
       <c r="B237">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11184810</v>
       </c>
       <c r="C237" t="s">
         <v>29</v>
       </c>
       <c r="D237" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 110, "valor":11184810},</v>
       </c>
     </row>
@@ -27978,14 +27654,14 @@
         <v>178</v>
       </c>
       <c r="B238">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5592405</v>
       </c>
       <c r="C238" t="s">
         <v>29</v>
       </c>
       <c r="D238" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 111, "valor":5592405},</v>
       </c>
     </row>
@@ -27994,14 +27670,14 @@
         <v>179</v>
       </c>
       <c r="B239">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11184810</v>
       </c>
       <c r="C239" t="s">
         <v>29</v>
       </c>
       <c r="D239" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 112, "valor":11184810},</v>
       </c>
     </row>
@@ -28010,14 +27686,14 @@
         <v>180</v>
       </c>
       <c r="B240">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5592405</v>
       </c>
       <c r="C240" t="s">
         <v>29</v>
       </c>
       <c r="D240" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 113, "valor":5592405},</v>
       </c>
     </row>
@@ -28026,14 +27702,14 @@
         <v>181</v>
       </c>
       <c r="B241">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11184810</v>
       </c>
       <c r="C241" t="s">
         <v>29</v>
       </c>
       <c r="D241" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 114, "valor":11184810},</v>
       </c>
     </row>
@@ -28042,14 +27718,14 @@
         <v>182</v>
       </c>
       <c r="B242">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5592405</v>
       </c>
       <c r="C242" t="s">
         <v>29</v>
       </c>
       <c r="D242" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 115, "valor":5592405},</v>
       </c>
     </row>
@@ -28058,14 +27734,14 @@
         <v>183</v>
       </c>
       <c r="B243">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11184810</v>
       </c>
       <c r="C243" t="s">
         <v>29</v>
       </c>
       <c r="D243" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 116, "valor":11184810},</v>
       </c>
     </row>
@@ -28074,14 +27750,14 @@
         <v>184</v>
       </c>
       <c r="B244">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5592405</v>
       </c>
       <c r="C244" t="s">
         <v>29</v>
       </c>
       <c r="D244" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 117, "valor":5592405},</v>
       </c>
     </row>
@@ -28090,14 +27766,14 @@
         <v>185</v>
       </c>
       <c r="B245">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11184810</v>
       </c>
       <c r="C245" t="s">
         <v>29</v>
       </c>
       <c r="D245" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 118, "valor":11184810},</v>
       </c>
     </row>
@@ -28106,14 +27782,14 @@
         <v>186</v>
       </c>
       <c r="B246">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5592405</v>
       </c>
       <c r="C246" t="s">
         <v>29</v>
       </c>
       <c r="D246" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id": 119, "valor":5592405},</v>
       </c>
     </row>

--- a/.mio/Secuenciador.xlsx
+++ b/.mio/Secuenciador.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlopezt\Documents\PlatformIO\Projects\Actuador-ESP32\.mio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B858672C-AFF6-4BD9-999C-4E3BB7FD1FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFE8856-0F41-4C37-A195-32D6A91075F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{E272C0E1-DFCC-4036-ADAB-96F87FDBC628}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="6" xr2:uid="{E272C0E1-DFCC-4036-ADAB-96F87FDBC628}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="60 intervalos por hora" sheetId="3" r:id="rId3"/>
     <sheet name="60 intervalos por hora (2)" sheetId="4" r:id="rId4"/>
     <sheet name="120 intervalos por hora" sheetId="5" r:id="rId5"/>
+    <sheet name="Ejemplo" sheetId="6" r:id="rId6"/>
+    <sheet name="60 intervalos por hora (Adornos" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="378">
   <si>
     <t>Intervalo</t>
   </si>
@@ -599,6 +601,579 @@
   </si>
   <si>
     <t>{"id": 119, "valor":</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>estadoInicial: 1,</t>
+  </si>
+  <si>
+    <t>Planes:[</t>
+  </si>
+  <si>
+    <t>nombre: "Delante Izq",</t>
+  </si>
+  <si>
+    <t>salida: 0,</t>
+  </si>
+  <si>
+    <t>intervalos: [</t>
+  </si>
+  <si>
+    <t>{"id":  0, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id":  1, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id":  2, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id":  3, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id":  4, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id":  5, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id":  6, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id":  7, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id":  8, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id":  9, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id": 10, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id": 11, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id": 12, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id": 13, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id": 14, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id": 15, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id": 16, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id": 17, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id": 18, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id": 19, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id": 20, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id": 21, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id": 22, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id": 23, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id": 24, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id": 25, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id": 26, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id": 27, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id": 28, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id": 29, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id": 30, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id": 31, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id": 32, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id": 33, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id": 34, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id": 35, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id": 36, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id": 37, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id": 38, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id": 39, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id": 40, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id": 41, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id": 42, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id": 43, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id": 44, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id": 45, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id": 46, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id": 47, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id": 48, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id": 49, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id": 50, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id": 51, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id": 52, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id": 53, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id": 54, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id": 55, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id": 56, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id": 57, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id": 58, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id": 59, "valor":5592405}</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>nombre: "Delante der",</t>
+  </si>
+  <si>
+    <t>salida: 1,</t>
+  </si>
+  <si>
+    <t>{"id":  0, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id":  1, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id":  2, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id":  3, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id":  4, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id":  5, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id":  6, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id":  7, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id":  8, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id":  9, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id": 10, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id": 11, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id": 12, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id": 13, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id": 14, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id": 15, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id": 16, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id": 17, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id": 18, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id": 19, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id": 20, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id": 21, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id": 22, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id": 23, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id": 24, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id":  25, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id":  26, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id":  27, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id":  28, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id":  29, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id":  30, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id":  31, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id":  32, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id":  33, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id":  34, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id":  35, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id":  36, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id":  37, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id":  38, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id":  39, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id":  40, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id":  41, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id":  42, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id":  43, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id":  44, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id":  45, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id":  46, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id":  47, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id":  48, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id":  49, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id":  50, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id":  51, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id":  52, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id":  53, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id":  54, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id":  55, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id":  56, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id":  57, "valor":11184810},</t>
+  </si>
+  <si>
+    <t>{"id":  58, "valor":5592405},</t>
+  </si>
+  <si>
+    <t>{"id":  59, "valor":11184810}</t>
+  </si>
+  <si>
+    <t>nombre: "Jardin",</t>
+  </si>
+  <si>
+    <t>salida: 2,</t>
+  </si>
+  <si>
+    <t>{"id":  0, "valor":13421772},</t>
+  </si>
+  <si>
+    <t>{"id":  1, "valor":3355443},</t>
+  </si>
+  <si>
+    <t>{"id":  2, "valor":13421772},</t>
+  </si>
+  <si>
+    <t>{"id":  3, "valor":3355443},</t>
+  </si>
+  <si>
+    <t>{"id":  4, "valor":13421772},</t>
+  </si>
+  <si>
+    <t>{"id":  5, "valor":3355443},</t>
+  </si>
+  <si>
+    <t>{"id":  6, "valor":13421772},</t>
+  </si>
+  <si>
+    <t>{"id":  7, "valor":3355443},</t>
+  </si>
+  <si>
+    <t>{"id":  8, "valor":13421772},</t>
+  </si>
+  <si>
+    <t>{"id":  9, "valor":3355443},</t>
+  </si>
+  <si>
+    <t>{"id": 10, "valor":13421772},</t>
+  </si>
+  <si>
+    <t>{"id": 11, "valor":3355443},</t>
+  </si>
+  <si>
+    <t>{"id": 12, "valor":13421772},</t>
+  </si>
+  <si>
+    <t>{"id": 13, "valor":3355443},</t>
+  </si>
+  <si>
+    <t>{"id": 14, "valor":13421772},</t>
+  </si>
+  <si>
+    <t>{"id": 15, "valor":3355443},</t>
+  </si>
+  <si>
+    <t>{"id": 16, "valor":13421772},</t>
+  </si>
+  <si>
+    <t>{"id": 17, "valor":3355443},</t>
+  </si>
+  <si>
+    <t>{"id": 18, "valor":13421772},</t>
+  </si>
+  <si>
+    <t>{"id": 19, "valor":3355443},</t>
+  </si>
+  <si>
+    <t>{"id": 20, "valor":13421772},</t>
+  </si>
+  <si>
+    <t>{"id": 21, "valor":3355443},</t>
+  </si>
+  <si>
+    <t>{"id": 22, "valor":13421772},</t>
+  </si>
+  <si>
+    <t>{"id": 23, "valor":3355443},</t>
+  </si>
+  <si>
+    <t>{"id": 24, "valor":13421772},</t>
+  </si>
+  <si>
+    <t>{"id":  25, "valor":3355443},</t>
+  </si>
+  <si>
+    <t>{"id":  26, "valor":13421772},</t>
+  </si>
+  <si>
+    <t>{"id":  27, "valor":3355443},</t>
+  </si>
+  <si>
+    <t>{"id":  28, "valor":13421772},</t>
+  </si>
+  <si>
+    <t>{"id":  29, "valor":3355443},</t>
+  </si>
+  <si>
+    <t>{"id":  30, "valor":13421772},</t>
+  </si>
+  <si>
+    <t>{"id":  31, "valor":3355443},</t>
+  </si>
+  <si>
+    <t>{"id":  32, "valor":13421772},</t>
+  </si>
+  <si>
+    <t>{"id":  33, "valor":3355443},</t>
+  </si>
+  <si>
+    <t>{"id":  34, "valor":13421772},</t>
+  </si>
+  <si>
+    <t>{"id":  35, "valor":3355443},</t>
+  </si>
+  <si>
+    <t>{"id":  36, "valor":13421772},</t>
+  </si>
+  <si>
+    <t>{"id":  37, "valor":3355443},</t>
+  </si>
+  <si>
+    <t>{"id":  38, "valor":13421772},</t>
+  </si>
+  <si>
+    <t>{"id":  39, "valor":3355443},</t>
+  </si>
+  <si>
+    <t>{"id":  40, "valor":13421772},</t>
+  </si>
+  <si>
+    <t>{"id":  41, "valor":3355443},</t>
+  </si>
+  <si>
+    <t>{"id":  42, "valor":13421772},</t>
+  </si>
+  <si>
+    <t>{"id":  43, "valor":3355443},</t>
+  </si>
+  <si>
+    <t>{"id":  44, "valor":13421772},</t>
+  </si>
+  <si>
+    <t>{"id":  45, "valor":3355443},</t>
+  </si>
+  <si>
+    <t>{"id":  46, "valor":13421772},</t>
+  </si>
+  <si>
+    <t>{"id":  47, "valor":3355443},</t>
+  </si>
+  <si>
+    <t>{"id":  48, "valor":13421772},</t>
+  </si>
+  <si>
+    <t>{"id":  49, "valor":3355443},</t>
+  </si>
+  <si>
+    <t>{"id":  50, "valor":13421772},</t>
+  </si>
+  <si>
+    <t>{"id":  51, "valor":3355443},</t>
+  </si>
+  <si>
+    <t>{"id":  52, "valor":13421772},</t>
+  </si>
+  <si>
+    <t>{"id":  53, "valor":3355443},</t>
+  </si>
+  <si>
+    <t>{"id":  54, "valor":13421772},</t>
+  </si>
+  <si>
+    <t>{"id":  55, "valor":3355443},</t>
+  </si>
+  <si>
+    <t>{"id":  56, "valor":13421772},</t>
+  </si>
+  <si>
+    <t>{"id":  57, "valor":3355443},</t>
+  </si>
+  <si>
+    <t>{"id":  58, "valor":13421772},</t>
+  </si>
+  <si>
+    <t>{"id":  59, "valor":3355443}</t>
   </si>
 </sst>
 </file>
@@ -3589,7 +4164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CD603C-F803-4FF3-86E6-DE77E262AA87}">
   <dimension ref="A1:Z132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -9936,8 +10511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5B46E3-31F9-4C4A-90E1-1C540B1A935D}">
   <dimension ref="A1:Z128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69:D128"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14995,7 +15570,7 @@
         <v>28</v>
       </c>
       <c r="B69">
-        <f>+B3</f>
+        <f t="shared" ref="B69:B100" si="2">+B3</f>
         <v>13421772</v>
       </c>
       <c r="C69" t="s">
@@ -15011,14 +15586,14 @@
         <v>30</v>
       </c>
       <c r="B70">
-        <f>+B4</f>
+        <f t="shared" si="2"/>
         <v>3355443</v>
       </c>
       <c r="C70" t="s">
         <v>29</v>
       </c>
       <c r="D70" t="str">
-        <f t="shared" ref="D70:D128" si="2">+CONCATENATE(A70,B70,C70)</f>
+        <f t="shared" ref="D70:D128" si="3">+CONCATENATE(A70,B70,C70)</f>
         <v>{"id":  1, "valor":3355443},</v>
       </c>
     </row>
@@ -15027,14 +15602,14 @@
         <v>31</v>
       </c>
       <c r="B71">
-        <f>+B5</f>
+        <f t="shared" si="2"/>
         <v>13421772</v>
       </c>
       <c r="C71" t="s">
         <v>29</v>
       </c>
       <c r="D71" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id":  2, "valor":13421772},</v>
       </c>
     </row>
@@ -15043,14 +15618,14 @@
         <v>32</v>
       </c>
       <c r="B72">
-        <f>+B6</f>
+        <f t="shared" si="2"/>
         <v>3355443</v>
       </c>
       <c r="C72" t="s">
         <v>29</v>
       </c>
       <c r="D72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id":  3, "valor":3355443},</v>
       </c>
     </row>
@@ -15059,14 +15634,14 @@
         <v>33</v>
       </c>
       <c r="B73">
-        <f>+B7</f>
+        <f t="shared" si="2"/>
         <v>13421772</v>
       </c>
       <c r="C73" t="s">
         <v>29</v>
       </c>
       <c r="D73" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id":  4, "valor":13421772},</v>
       </c>
     </row>
@@ -15075,14 +15650,14 @@
         <v>34</v>
       </c>
       <c r="B74">
-        <f>+B8</f>
+        <f t="shared" si="2"/>
         <v>3355443</v>
       </c>
       <c r="C74" t="s">
         <v>29</v>
       </c>
       <c r="D74" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id":  5, "valor":3355443},</v>
       </c>
     </row>
@@ -15091,14 +15666,14 @@
         <v>35</v>
       </c>
       <c r="B75">
-        <f>+B9</f>
+        <f t="shared" si="2"/>
         <v>13421772</v>
       </c>
       <c r="C75" t="s">
         <v>29</v>
       </c>
       <c r="D75" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id":  6, "valor":13421772},</v>
       </c>
     </row>
@@ -15107,14 +15682,14 @@
         <v>36</v>
       </c>
       <c r="B76">
-        <f>+B10</f>
+        <f t="shared" si="2"/>
         <v>3355443</v>
       </c>
       <c r="C76" t="s">
         <v>29</v>
       </c>
       <c r="D76" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id":  7, "valor":3355443},</v>
       </c>
     </row>
@@ -15123,14 +15698,14 @@
         <v>37</v>
       </c>
       <c r="B77">
-        <f>+B11</f>
+        <f t="shared" si="2"/>
         <v>13421772</v>
       </c>
       <c r="C77" t="s">
         <v>29</v>
       </c>
       <c r="D77" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id":  8, "valor":13421772},</v>
       </c>
     </row>
@@ -15139,14 +15714,14 @@
         <v>38</v>
       </c>
       <c r="B78">
-        <f>+B12</f>
+        <f t="shared" si="2"/>
         <v>3355443</v>
       </c>
       <c r="C78" t="s">
         <v>29</v>
       </c>
       <c r="D78" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id":  9, "valor":3355443},</v>
       </c>
     </row>
@@ -15155,14 +15730,14 @@
         <v>39</v>
       </c>
       <c r="B79">
-        <f>+B13</f>
+        <f t="shared" si="2"/>
         <v>13421772</v>
       </c>
       <c r="C79" t="s">
         <v>29</v>
       </c>
       <c r="D79" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id": 10, "valor":13421772},</v>
       </c>
     </row>
@@ -15171,14 +15746,14 @@
         <v>40</v>
       </c>
       <c r="B80">
-        <f>+B14</f>
+        <f t="shared" si="2"/>
         <v>3355443</v>
       </c>
       <c r="C80" t="s">
         <v>29</v>
       </c>
       <c r="D80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id": 11, "valor":3355443},</v>
       </c>
     </row>
@@ -15187,14 +15762,14 @@
         <v>41</v>
       </c>
       <c r="B81">
-        <f>+B15</f>
+        <f t="shared" si="2"/>
         <v>13421772</v>
       </c>
       <c r="C81" t="s">
         <v>29</v>
       </c>
       <c r="D81" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id": 12, "valor":13421772},</v>
       </c>
     </row>
@@ -15203,14 +15778,14 @@
         <v>42</v>
       </c>
       <c r="B82">
-        <f>+B16</f>
+        <f t="shared" si="2"/>
         <v>3355443</v>
       </c>
       <c r="C82" t="s">
         <v>29</v>
       </c>
       <c r="D82" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id": 13, "valor":3355443},</v>
       </c>
     </row>
@@ -15219,14 +15794,14 @@
         <v>43</v>
       </c>
       <c r="B83">
-        <f>+B17</f>
+        <f t="shared" si="2"/>
         <v>13421772</v>
       </c>
       <c r="C83" t="s">
         <v>29</v>
       </c>
       <c r="D83" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id": 14, "valor":13421772},</v>
       </c>
     </row>
@@ -15235,14 +15810,14 @@
         <v>44</v>
       </c>
       <c r="B84">
-        <f>+B18</f>
+        <f t="shared" si="2"/>
         <v>3355443</v>
       </c>
       <c r="C84" t="s">
         <v>29</v>
       </c>
       <c r="D84" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id": 15, "valor":3355443},</v>
       </c>
     </row>
@@ -15251,14 +15826,14 @@
         <v>45</v>
       </c>
       <c r="B85">
-        <f>+B19</f>
+        <f t="shared" si="2"/>
         <v>13421772</v>
       </c>
       <c r="C85" t="s">
         <v>29</v>
       </c>
       <c r="D85" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id": 16, "valor":13421772},</v>
       </c>
     </row>
@@ -15267,14 +15842,14 @@
         <v>46</v>
       </c>
       <c r="B86">
-        <f>+B20</f>
+        <f t="shared" si="2"/>
         <v>3355443</v>
       </c>
       <c r="C86" t="s">
         <v>29</v>
       </c>
       <c r="D86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id": 17, "valor":3355443},</v>
       </c>
     </row>
@@ -15283,14 +15858,14 @@
         <v>47</v>
       </c>
       <c r="B87">
-        <f>+B21</f>
+        <f t="shared" si="2"/>
         <v>13421772</v>
       </c>
       <c r="C87" t="s">
         <v>29</v>
       </c>
       <c r="D87" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id": 18, "valor":13421772},</v>
       </c>
     </row>
@@ -15299,14 +15874,14 @@
         <v>48</v>
       </c>
       <c r="B88">
-        <f>+B22</f>
+        <f t="shared" si="2"/>
         <v>3355443</v>
       </c>
       <c r="C88" t="s">
         <v>29</v>
       </c>
       <c r="D88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id": 19, "valor":3355443},</v>
       </c>
     </row>
@@ -15315,14 +15890,14 @@
         <v>49</v>
       </c>
       <c r="B89">
-        <f>+B23</f>
+        <f t="shared" si="2"/>
         <v>13421772</v>
       </c>
       <c r="C89" t="s">
         <v>29</v>
       </c>
       <c r="D89" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id": 20, "valor":13421772},</v>
       </c>
     </row>
@@ -15331,14 +15906,14 @@
         <v>50</v>
       </c>
       <c r="B90">
-        <f>+B24</f>
+        <f t="shared" si="2"/>
         <v>3355443</v>
       </c>
       <c r="C90" t="s">
         <v>29</v>
       </c>
       <c r="D90" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id": 21, "valor":3355443},</v>
       </c>
     </row>
@@ -15347,14 +15922,14 @@
         <v>51</v>
       </c>
       <c r="B91">
-        <f>+B25</f>
+        <f t="shared" si="2"/>
         <v>13421772</v>
       </c>
       <c r="C91" t="s">
         <v>29</v>
       </c>
       <c r="D91" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id": 22, "valor":13421772},</v>
       </c>
     </row>
@@ -15363,14 +15938,14 @@
         <v>52</v>
       </c>
       <c r="B92">
-        <f>+B26</f>
+        <f t="shared" si="2"/>
         <v>3355443</v>
       </c>
       <c r="C92" t="s">
         <v>29</v>
       </c>
       <c r="D92" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id": 23, "valor":3355443},</v>
       </c>
     </row>
@@ -15379,14 +15954,14 @@
         <v>55</v>
       </c>
       <c r="B93">
-        <f>+B27</f>
+        <f t="shared" si="2"/>
         <v>13421772</v>
       </c>
       <c r="C93" t="s">
         <v>29</v>
       </c>
       <c r="D93" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id": 24, "valor":13421772},</v>
       </c>
     </row>
@@ -15395,14 +15970,14 @@
         <v>56</v>
       </c>
       <c r="B94">
-        <f>+B28</f>
+        <f t="shared" si="2"/>
         <v>3355443</v>
       </c>
       <c r="C94" t="s">
         <v>29</v>
       </c>
       <c r="D94" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id":  25, "valor":3355443},</v>
       </c>
     </row>
@@ -15411,14 +15986,14 @@
         <v>57</v>
       </c>
       <c r="B95">
-        <f>+B29</f>
+        <f t="shared" si="2"/>
         <v>13421772</v>
       </c>
       <c r="C95" t="s">
         <v>29</v>
       </c>
       <c r="D95" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id":  26, "valor":13421772},</v>
       </c>
     </row>
@@ -15427,14 +16002,14 @@
         <v>58</v>
       </c>
       <c r="B96">
-        <f>+B30</f>
+        <f t="shared" si="2"/>
         <v>3355443</v>
       </c>
       <c r="C96" t="s">
         <v>29</v>
       </c>
       <c r="D96" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id":  27, "valor":3355443},</v>
       </c>
     </row>
@@ -15443,14 +16018,14 @@
         <v>59</v>
       </c>
       <c r="B97">
-        <f>+B31</f>
+        <f t="shared" si="2"/>
         <v>13421772</v>
       </c>
       <c r="C97" t="s">
         <v>29</v>
       </c>
       <c r="D97" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id":  28, "valor":13421772},</v>
       </c>
     </row>
@@ -15459,14 +16034,14 @@
         <v>60</v>
       </c>
       <c r="B98">
-        <f>+B32</f>
+        <f t="shared" si="2"/>
         <v>3355443</v>
       </c>
       <c r="C98" t="s">
         <v>29</v>
       </c>
       <c r="D98" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id":  29, "valor":3355443},</v>
       </c>
     </row>
@@ -15475,14 +16050,14 @@
         <v>61</v>
       </c>
       <c r="B99">
-        <f>+B33</f>
+        <f t="shared" si="2"/>
         <v>13421772</v>
       </c>
       <c r="C99" t="s">
         <v>29</v>
       </c>
       <c r="D99" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id":  30, "valor":13421772},</v>
       </c>
     </row>
@@ -15491,14 +16066,14 @@
         <v>62</v>
       </c>
       <c r="B100">
-        <f>+B34</f>
+        <f t="shared" si="2"/>
         <v>3355443</v>
       </c>
       <c r="C100" t="s">
         <v>29</v>
       </c>
       <c r="D100" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id":  31, "valor":3355443},</v>
       </c>
     </row>
@@ -15507,14 +16082,14 @@
         <v>63</v>
       </c>
       <c r="B101">
-        <f>+B35</f>
+        <f t="shared" ref="B101:B128" si="4">+B35</f>
         <v>13421772</v>
       </c>
       <c r="C101" t="s">
         <v>29</v>
       </c>
       <c r="D101" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id":  32, "valor":13421772},</v>
       </c>
     </row>
@@ -15523,14 +16098,14 @@
         <v>64</v>
       </c>
       <c r="B102">
-        <f>+B36</f>
+        <f t="shared" si="4"/>
         <v>3355443</v>
       </c>
       <c r="C102" t="s">
         <v>29</v>
       </c>
       <c r="D102" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id":  33, "valor":3355443},</v>
       </c>
     </row>
@@ -15539,14 +16114,14 @@
         <v>65</v>
       </c>
       <c r="B103">
-        <f>+B37</f>
+        <f t="shared" si="4"/>
         <v>13421772</v>
       </c>
       <c r="C103" t="s">
         <v>29</v>
       </c>
       <c r="D103" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id":  34, "valor":13421772},</v>
       </c>
     </row>
@@ -15555,14 +16130,14 @@
         <v>66</v>
       </c>
       <c r="B104">
-        <f>+B38</f>
+        <f t="shared" si="4"/>
         <v>3355443</v>
       </c>
       <c r="C104" t="s">
         <v>29</v>
       </c>
       <c r="D104" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id":  35, "valor":3355443},</v>
       </c>
     </row>
@@ -15571,14 +16146,14 @@
         <v>67</v>
       </c>
       <c r="B105">
-        <f>+B39</f>
+        <f t="shared" si="4"/>
         <v>13421772</v>
       </c>
       <c r="C105" t="s">
         <v>29</v>
       </c>
       <c r="D105" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id":  36, "valor":13421772},</v>
       </c>
     </row>
@@ -15587,14 +16162,14 @@
         <v>68</v>
       </c>
       <c r="B106">
-        <f>+B40</f>
+        <f t="shared" si="4"/>
         <v>3355443</v>
       </c>
       <c r="C106" t="s">
         <v>29</v>
       </c>
       <c r="D106" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id":  37, "valor":3355443},</v>
       </c>
     </row>
@@ -15603,14 +16178,14 @@
         <v>69</v>
       </c>
       <c r="B107">
-        <f>+B41</f>
+        <f t="shared" si="4"/>
         <v>13421772</v>
       </c>
       <c r="C107" t="s">
         <v>29</v>
       </c>
       <c r="D107" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id":  38, "valor":13421772},</v>
       </c>
     </row>
@@ -15619,14 +16194,14 @@
         <v>70</v>
       </c>
       <c r="B108">
-        <f>+B42</f>
+        <f t="shared" si="4"/>
         <v>3355443</v>
       </c>
       <c r="C108" t="s">
         <v>29</v>
       </c>
       <c r="D108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id":  39, "valor":3355443},</v>
       </c>
     </row>
@@ -15635,14 +16210,14 @@
         <v>71</v>
       </c>
       <c r="B109">
-        <f>+B43</f>
+        <f t="shared" si="4"/>
         <v>13421772</v>
       </c>
       <c r="C109" t="s">
         <v>29</v>
       </c>
       <c r="D109" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id":  40, "valor":13421772},</v>
       </c>
     </row>
@@ -15651,14 +16226,14 @@
         <v>72</v>
       </c>
       <c r="B110">
-        <f>+B44</f>
+        <f t="shared" si="4"/>
         <v>3355443</v>
       </c>
       <c r="C110" t="s">
         <v>29</v>
       </c>
       <c r="D110" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id":  41, "valor":3355443},</v>
       </c>
     </row>
@@ -15667,14 +16242,14 @@
         <v>73</v>
       </c>
       <c r="B111">
-        <f>+B45</f>
+        <f t="shared" si="4"/>
         <v>13421772</v>
       </c>
       <c r="C111" t="s">
         <v>29</v>
       </c>
       <c r="D111" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id":  42, "valor":13421772},</v>
       </c>
     </row>
@@ -15683,14 +16258,14 @@
         <v>74</v>
       </c>
       <c r="B112">
-        <f>+B46</f>
+        <f t="shared" si="4"/>
         <v>3355443</v>
       </c>
       <c r="C112" t="s">
         <v>29</v>
       </c>
       <c r="D112" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id":  43, "valor":3355443},</v>
       </c>
     </row>
@@ -15699,14 +16274,14 @@
         <v>75</v>
       </c>
       <c r="B113">
-        <f>+B47</f>
+        <f t="shared" si="4"/>
         <v>13421772</v>
       </c>
       <c r="C113" t="s">
         <v>29</v>
       </c>
       <c r="D113" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id":  44, "valor":13421772},</v>
       </c>
     </row>
@@ -15715,14 +16290,14 @@
         <v>76</v>
       </c>
       <c r="B114">
-        <f>+B48</f>
+        <f t="shared" si="4"/>
         <v>3355443</v>
       </c>
       <c r="C114" t="s">
         <v>29</v>
       </c>
       <c r="D114" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id":  45, "valor":3355443},</v>
       </c>
     </row>
@@ -15731,14 +16306,14 @@
         <v>77</v>
       </c>
       <c r="B115">
-        <f>+B49</f>
+        <f t="shared" si="4"/>
         <v>13421772</v>
       </c>
       <c r="C115" t="s">
         <v>29</v>
       </c>
       <c r="D115" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id":  46, "valor":13421772},</v>
       </c>
     </row>
@@ -15747,14 +16322,14 @@
         <v>78</v>
       </c>
       <c r="B116">
-        <f>+B50</f>
+        <f t="shared" si="4"/>
         <v>3355443</v>
       </c>
       <c r="C116" t="s">
         <v>29</v>
       </c>
       <c r="D116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id":  47, "valor":3355443},</v>
       </c>
     </row>
@@ -15763,14 +16338,14 @@
         <v>79</v>
       </c>
       <c r="B117">
-        <f>+B51</f>
+        <f t="shared" si="4"/>
         <v>13421772</v>
       </c>
       <c r="C117" t="s">
         <v>29</v>
       </c>
       <c r="D117" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id":  48, "valor":13421772},</v>
       </c>
     </row>
@@ -15779,14 +16354,14 @@
         <v>80</v>
       </c>
       <c r="B118">
-        <f>+B52</f>
+        <f t="shared" si="4"/>
         <v>3355443</v>
       </c>
       <c r="C118" t="s">
         <v>29</v>
       </c>
       <c r="D118" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id":  49, "valor":3355443},</v>
       </c>
     </row>
@@ -15795,14 +16370,14 @@
         <v>81</v>
       </c>
       <c r="B119">
-        <f>+B53</f>
+        <f t="shared" si="4"/>
         <v>13421772</v>
       </c>
       <c r="C119" t="s">
         <v>29</v>
       </c>
       <c r="D119" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id":  50, "valor":13421772},</v>
       </c>
     </row>
@@ -15811,14 +16386,14 @@
         <v>82</v>
       </c>
       <c r="B120">
-        <f>+B54</f>
+        <f t="shared" si="4"/>
         <v>3355443</v>
       </c>
       <c r="C120" t="s">
         <v>29</v>
       </c>
       <c r="D120" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id":  51, "valor":3355443},</v>
       </c>
     </row>
@@ -15827,14 +16402,14 @@
         <v>83</v>
       </c>
       <c r="B121">
-        <f>+B55</f>
+        <f t="shared" si="4"/>
         <v>13421772</v>
       </c>
       <c r="C121" t="s">
         <v>29</v>
       </c>
       <c r="D121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id":  52, "valor":13421772},</v>
       </c>
     </row>
@@ -15843,14 +16418,14 @@
         <v>84</v>
       </c>
       <c r="B122">
-        <f>+B56</f>
+        <f t="shared" si="4"/>
         <v>3355443</v>
       </c>
       <c r="C122" t="s">
         <v>29</v>
       </c>
       <c r="D122" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id":  53, "valor":3355443},</v>
       </c>
     </row>
@@ -15859,14 +16434,14 @@
         <v>85</v>
       </c>
       <c r="B123">
-        <f>+B57</f>
+        <f t="shared" si="4"/>
         <v>13421772</v>
       </c>
       <c r="C123" t="s">
         <v>29</v>
       </c>
       <c r="D123" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id":  54, "valor":13421772},</v>
       </c>
     </row>
@@ -15875,14 +16450,14 @@
         <v>86</v>
       </c>
       <c r="B124">
-        <f>+B58</f>
+        <f t="shared" si="4"/>
         <v>3355443</v>
       </c>
       <c r="C124" t="s">
         <v>29</v>
       </c>
       <c r="D124" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id":  55, "valor":3355443},</v>
       </c>
     </row>
@@ -15891,14 +16466,14 @@
         <v>87</v>
       </c>
       <c r="B125">
-        <f>+B59</f>
+        <f t="shared" si="4"/>
         <v>13421772</v>
       </c>
       <c r="C125" t="s">
         <v>29</v>
       </c>
       <c r="D125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id":  56, "valor":13421772},</v>
       </c>
     </row>
@@ -15907,14 +16482,14 @@
         <v>88</v>
       </c>
       <c r="B126">
-        <f>+B60</f>
+        <f t="shared" si="4"/>
         <v>3355443</v>
       </c>
       <c r="C126" t="s">
         <v>29</v>
       </c>
       <c r="D126" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id":  57, "valor":3355443},</v>
       </c>
     </row>
@@ -15923,14 +16498,14 @@
         <v>89</v>
       </c>
       <c r="B127">
-        <f>+B61</f>
+        <f t="shared" si="4"/>
         <v>13421772</v>
       </c>
       <c r="C127" t="s">
         <v>29</v>
       </c>
       <c r="D127" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id":  58, "valor":13421772},</v>
       </c>
     </row>
@@ -15939,14 +16514,14 @@
         <v>90</v>
       </c>
       <c r="B128">
-        <f>+B62</f>
+        <f t="shared" si="4"/>
         <v>3355443</v>
       </c>
       <c r="C128" t="s">
         <v>53</v>
       </c>
       <c r="D128" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{"id":  59, "valor":3355443}</v>
       </c>
     </row>
@@ -26390,7 +26965,7 @@
         <v>99</v>
       </c>
       <c r="B159">
-        <f t="shared" ref="B159:B190" si="5">+B35</f>
+        <f t="shared" ref="B159:B186" si="5">+B35</f>
         <v>11184810</v>
       </c>
       <c r="C159" t="s">
@@ -27791,6 +28366,7059 @@
       <c r="D246" t="str">
         <f t="shared" si="7"/>
         <v>{"id": 119, "valor":5592405},</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B93C59E8-E6D3-4E86-ABED-584059876DF8}">
+  <dimension ref="A1:D203"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J72" sqref="J72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D147" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D148" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D150" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D151" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D152" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D153" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D154" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D155" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D157" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D158" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D159" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D162" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D163" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D164" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D165" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D169" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D171" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D172" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D173" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D174" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D175" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D176" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D177" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D178" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D179" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="180" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D180" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="181" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D181" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="182" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D182" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="183" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D183" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="184" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D184" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="185" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D185" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="186" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D186" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="187" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D187" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="188" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D188" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="189" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D189" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="190" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D190" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="191" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D191" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="192" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D192" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D193" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D194" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D195" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D196" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D197" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D198" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D199" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D200" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C201" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39399885-763F-424E-A84F-DA44C1FE4DCB}">
+  <dimension ref="A1:Z128"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69:D128"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <f t="shared" ref="C1:Z1" si="0">+POWER(2,C2)</f>
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="I1">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="J1">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="K1">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="L1">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
+      <c r="M1">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="N1">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+      <c r="O1">
+        <f t="shared" si="0"/>
+        <v>4096</v>
+      </c>
+      <c r="P1">
+        <f t="shared" si="0"/>
+        <v>8192</v>
+      </c>
+      <c r="Q1">
+        <f t="shared" si="0"/>
+        <v>16384</v>
+      </c>
+      <c r="R1">
+        <f t="shared" si="0"/>
+        <v>32768</v>
+      </c>
+      <c r="S1">
+        <f t="shared" si="0"/>
+        <v>65536</v>
+      </c>
+      <c r="T1">
+        <f t="shared" si="0"/>
+        <v>131072</v>
+      </c>
+      <c r="U1">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="V1">
+        <f t="shared" si="0"/>
+        <v>524288</v>
+      </c>
+      <c r="W1">
+        <f t="shared" si="0"/>
+        <v>1048576</v>
+      </c>
+      <c r="X1">
+        <f t="shared" si="0"/>
+        <v>2097152</v>
+      </c>
+      <c r="Y1">
+        <f t="shared" si="0"/>
+        <v>4194304</v>
+      </c>
+      <c r="Z1">
+        <f t="shared" si="0"/>
+        <v>8388608</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>8</v>
+      </c>
+      <c r="L2">
+        <v>9</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>11</v>
+      </c>
+      <c r="O2">
+        <v>12</v>
+      </c>
+      <c r="P2">
+        <v>13</v>
+      </c>
+      <c r="Q2">
+        <v>14</v>
+      </c>
+      <c r="R2">
+        <v>15</v>
+      </c>
+      <c r="S2">
+        <v>16</v>
+      </c>
+      <c r="T2">
+        <v>17</v>
+      </c>
+      <c r="U2">
+        <v>18</v>
+      </c>
+      <c r="V2">
+        <v>19</v>
+      </c>
+      <c r="W2">
+        <v>20</v>
+      </c>
+      <c r="X2">
+        <v>21</v>
+      </c>
+      <c r="Y2">
+        <v>22</v>
+      </c>
+      <c r="Z2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <f>+SUMPRODUCT($C$1:$Z$1,C3:Z3)</f>
+        <v>16515072</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B62" si="1">+SUMPRODUCT($C$1:$Z$1,C4:Z4)</f>
+        <v>16515072</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="Z26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>1</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="Z27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>1</v>
+      </c>
+      <c r="Y28">
+        <v>1</v>
+      </c>
+      <c r="Z28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
+      </c>
+      <c r="Y30">
+        <v>1</v>
+      </c>
+      <c r="Z30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>1</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
+      </c>
+      <c r="Y31">
+        <v>1</v>
+      </c>
+      <c r="Z31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
+      <c r="Y32">
+        <v>1</v>
+      </c>
+      <c r="Z32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="X33">
+        <v>1</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+      <c r="Z33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <v>1</v>
+      </c>
+      <c r="X34">
+        <v>1</v>
+      </c>
+      <c r="Y34">
+        <v>1</v>
+      </c>
+      <c r="Z34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
+      </c>
+      <c r="Y35">
+        <v>1</v>
+      </c>
+      <c r="Z35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <v>1</v>
+      </c>
+      <c r="Y36">
+        <v>1</v>
+      </c>
+      <c r="Z36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <v>1</v>
+      </c>
+      <c r="W37">
+        <v>1</v>
+      </c>
+      <c r="X37">
+        <v>1</v>
+      </c>
+      <c r="Y37">
+        <v>1</v>
+      </c>
+      <c r="Z37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
+      </c>
+      <c r="W38">
+        <v>1</v>
+      </c>
+      <c r="X38">
+        <v>1</v>
+      </c>
+      <c r="Y38">
+        <v>1</v>
+      </c>
+      <c r="Z38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>1</v>
+      </c>
+      <c r="V39">
+        <v>1</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <v>1</v>
+      </c>
+      <c r="Y39">
+        <v>1</v>
+      </c>
+      <c r="Z39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>1</v>
+      </c>
+      <c r="V40">
+        <v>1</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <v>1</v>
+      </c>
+      <c r="Y40">
+        <v>1</v>
+      </c>
+      <c r="Z40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>1</v>
+      </c>
+      <c r="V41">
+        <v>1</v>
+      </c>
+      <c r="W41">
+        <v>1</v>
+      </c>
+      <c r="X41">
+        <v>1</v>
+      </c>
+      <c r="Y41">
+        <v>1</v>
+      </c>
+      <c r="Z41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>1</v>
+      </c>
+      <c r="V42">
+        <v>1</v>
+      </c>
+      <c r="W42">
+        <v>1</v>
+      </c>
+      <c r="X42">
+        <v>1</v>
+      </c>
+      <c r="Y42">
+        <v>1</v>
+      </c>
+      <c r="Z42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+      <c r="V43">
+        <v>1</v>
+      </c>
+      <c r="W43">
+        <v>1</v>
+      </c>
+      <c r="X43">
+        <v>1</v>
+      </c>
+      <c r="Y43">
+        <v>1</v>
+      </c>
+      <c r="Z43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>1</v>
+      </c>
+      <c r="V44">
+        <v>1</v>
+      </c>
+      <c r="W44">
+        <v>1</v>
+      </c>
+      <c r="X44">
+        <v>1</v>
+      </c>
+      <c r="Y44">
+        <v>1</v>
+      </c>
+      <c r="Z44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>1</v>
+      </c>
+      <c r="V45">
+        <v>1</v>
+      </c>
+      <c r="W45">
+        <v>1</v>
+      </c>
+      <c r="X45">
+        <v>1</v>
+      </c>
+      <c r="Y45">
+        <v>1</v>
+      </c>
+      <c r="Z45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>1</v>
+      </c>
+      <c r="V46">
+        <v>1</v>
+      </c>
+      <c r="W46">
+        <v>1</v>
+      </c>
+      <c r="X46">
+        <v>1</v>
+      </c>
+      <c r="Y46">
+        <v>1</v>
+      </c>
+      <c r="Z46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>1</v>
+      </c>
+      <c r="V47">
+        <v>1</v>
+      </c>
+      <c r="W47">
+        <v>1</v>
+      </c>
+      <c r="X47">
+        <v>1</v>
+      </c>
+      <c r="Y47">
+        <v>1</v>
+      </c>
+      <c r="Z47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>1</v>
+      </c>
+      <c r="V48">
+        <v>1</v>
+      </c>
+      <c r="W48">
+        <v>1</v>
+      </c>
+      <c r="X48">
+        <v>1</v>
+      </c>
+      <c r="Y48">
+        <v>1</v>
+      </c>
+      <c r="Z48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>1</v>
+      </c>
+      <c r="V49">
+        <v>1</v>
+      </c>
+      <c r="W49">
+        <v>1</v>
+      </c>
+      <c r="X49">
+        <v>1</v>
+      </c>
+      <c r="Y49">
+        <v>1</v>
+      </c>
+      <c r="Z49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>1</v>
+      </c>
+      <c r="V50">
+        <v>1</v>
+      </c>
+      <c r="W50">
+        <v>1</v>
+      </c>
+      <c r="X50">
+        <v>1</v>
+      </c>
+      <c r="Y50">
+        <v>1</v>
+      </c>
+      <c r="Z50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>1</v>
+      </c>
+      <c r="V51">
+        <v>1</v>
+      </c>
+      <c r="W51">
+        <v>1</v>
+      </c>
+      <c r="X51">
+        <v>1</v>
+      </c>
+      <c r="Y51">
+        <v>1</v>
+      </c>
+      <c r="Z51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>1</v>
+      </c>
+      <c r="V52">
+        <v>1</v>
+      </c>
+      <c r="W52">
+        <v>1</v>
+      </c>
+      <c r="X52">
+        <v>1</v>
+      </c>
+      <c r="Y52">
+        <v>1</v>
+      </c>
+      <c r="Z52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>1</v>
+      </c>
+      <c r="V53">
+        <v>1</v>
+      </c>
+      <c r="W53">
+        <v>1</v>
+      </c>
+      <c r="X53">
+        <v>1</v>
+      </c>
+      <c r="Y53">
+        <v>1</v>
+      </c>
+      <c r="Z53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>1</v>
+      </c>
+      <c r="V54">
+        <v>1</v>
+      </c>
+      <c r="W54">
+        <v>1</v>
+      </c>
+      <c r="X54">
+        <v>1</v>
+      </c>
+      <c r="Y54">
+        <v>1</v>
+      </c>
+      <c r="Z54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>1</v>
+      </c>
+      <c r="V55">
+        <v>1</v>
+      </c>
+      <c r="W55">
+        <v>1</v>
+      </c>
+      <c r="X55">
+        <v>1</v>
+      </c>
+      <c r="Y55">
+        <v>1</v>
+      </c>
+      <c r="Z55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>1</v>
+      </c>
+      <c r="V56">
+        <v>1</v>
+      </c>
+      <c r="W56">
+        <v>1</v>
+      </c>
+      <c r="X56">
+        <v>1</v>
+      </c>
+      <c r="Y56">
+        <v>1</v>
+      </c>
+      <c r="Z56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>1</v>
+      </c>
+      <c r="V57">
+        <v>1</v>
+      </c>
+      <c r="W57">
+        <v>1</v>
+      </c>
+      <c r="X57">
+        <v>1</v>
+      </c>
+      <c r="Y57">
+        <v>1</v>
+      </c>
+      <c r="Z57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>1</v>
+      </c>
+      <c r="V58">
+        <v>1</v>
+      </c>
+      <c r="W58">
+        <v>1</v>
+      </c>
+      <c r="X58">
+        <v>1</v>
+      </c>
+      <c r="Y58">
+        <v>1</v>
+      </c>
+      <c r="Z58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>1</v>
+      </c>
+      <c r="V59">
+        <v>1</v>
+      </c>
+      <c r="W59">
+        <v>1</v>
+      </c>
+      <c r="X59">
+        <v>1</v>
+      </c>
+      <c r="Y59">
+        <v>1</v>
+      </c>
+      <c r="Z59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>1</v>
+      </c>
+      <c r="V60">
+        <v>1</v>
+      </c>
+      <c r="W60">
+        <v>1</v>
+      </c>
+      <c r="X60">
+        <v>1</v>
+      </c>
+      <c r="Y60">
+        <v>1</v>
+      </c>
+      <c r="Z60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>1</v>
+      </c>
+      <c r="V61">
+        <v>1</v>
+      </c>
+      <c r="W61">
+        <v>1</v>
+      </c>
+      <c r="X61">
+        <v>1</v>
+      </c>
+      <c r="Y61">
+        <v>1</v>
+      </c>
+      <c r="Z61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="1"/>
+        <v>16515072</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>1</v>
+      </c>
+      <c r="V62">
+        <v>1</v>
+      </c>
+      <c r="W62">
+        <v>1</v>
+      </c>
+      <c r="X62">
+        <v>1</v>
+      </c>
+      <c r="Y62">
+        <v>1</v>
+      </c>
+      <c r="Z62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ref="B69:B128" si="2">+B3</f>
+        <v>16515072</v>
+      </c>
+      <c r="C69" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" t="str">
+        <f>+CONCATENATE(A69,B69,C69)</f>
+        <v>{"id":  0, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C70" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" ref="D70:D128" si="3">+CONCATENATE(A70,B70,C70)</f>
+        <v>{"id":  1, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C71" t="s">
+        <v>29</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id":  2, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>32</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C72" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id":  3, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C73" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id":  4, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>34</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C74" t="s">
+        <v>29</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id":  5, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>35</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C75" t="s">
+        <v>29</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id":  6, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>36</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C76" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id":  7, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>37</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C77" t="s">
+        <v>29</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id":  8, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>38</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C78" t="s">
+        <v>29</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id":  9, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>39</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C79" t="s">
+        <v>29</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id": 10, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>40</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C80" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id": 11, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>41</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C81" t="s">
+        <v>29</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id": 12, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>42</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C82" t="s">
+        <v>29</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id": 13, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>43</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C83" t="s">
+        <v>29</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id": 14, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>44</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C84" t="s">
+        <v>29</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id": 15, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>45</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C85" t="s">
+        <v>29</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id": 16, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>46</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C86" t="s">
+        <v>29</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id": 17, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>47</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C87" t="s">
+        <v>29</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id": 18, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>48</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C88" t="s">
+        <v>29</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id": 19, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>49</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C89" t="s">
+        <v>29</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id": 20, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>50</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C90" t="s">
+        <v>29</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id": 21, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>51</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C91" t="s">
+        <v>29</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id": 22, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>52</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C92" t="s">
+        <v>29</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id": 23, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>55</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C93" t="s">
+        <v>29</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id": 24, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>56</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C94" t="s">
+        <v>29</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id":  25, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>57</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C95" t="s">
+        <v>29</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id":  26, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>58</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C96" t="s">
+        <v>29</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id":  27, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>59</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C97" t="s">
+        <v>29</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id":  28, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>60</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C98" t="s">
+        <v>29</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id":  29, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>61</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C99" t="s">
+        <v>29</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id":  30, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>62</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C100" t="s">
+        <v>29</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id":  31, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>63</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C101" t="s">
+        <v>29</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id":  32, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>64</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C102" t="s">
+        <v>29</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id":  33, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>65</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C103" t="s">
+        <v>29</v>
+      </c>
+      <c r="D103" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id":  34, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>66</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C104" t="s">
+        <v>29</v>
+      </c>
+      <c r="D104" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id":  35, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>67</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C105" t="s">
+        <v>29</v>
+      </c>
+      <c r="D105" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id":  36, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>68</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C106" t="s">
+        <v>29</v>
+      </c>
+      <c r="D106" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id":  37, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>69</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C107" t="s">
+        <v>29</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id":  38, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>70</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C108" t="s">
+        <v>29</v>
+      </c>
+      <c r="D108" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id":  39, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>71</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C109" t="s">
+        <v>29</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id":  40, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>72</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C110" t="s">
+        <v>29</v>
+      </c>
+      <c r="D110" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id":  41, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>73</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C111" t="s">
+        <v>29</v>
+      </c>
+      <c r="D111" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id":  42, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>74</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C112" t="s">
+        <v>29</v>
+      </c>
+      <c r="D112" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id":  43, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>75</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C113" t="s">
+        <v>29</v>
+      </c>
+      <c r="D113" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id":  44, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>76</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C114" t="s">
+        <v>29</v>
+      </c>
+      <c r="D114" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id":  45, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>77</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C115" t="s">
+        <v>29</v>
+      </c>
+      <c r="D115" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id":  46, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>78</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C116" t="s">
+        <v>29</v>
+      </c>
+      <c r="D116" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id":  47, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>79</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C117" t="s">
+        <v>29</v>
+      </c>
+      <c r="D117" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id":  48, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>80</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C118" t="s">
+        <v>29</v>
+      </c>
+      <c r="D118" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id":  49, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>81</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C119" t="s">
+        <v>29</v>
+      </c>
+      <c r="D119" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id":  50, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>82</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C120" t="s">
+        <v>29</v>
+      </c>
+      <c r="D120" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id":  51, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>83</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C121" t="s">
+        <v>29</v>
+      </c>
+      <c r="D121" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id":  52, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>84</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C122" t="s">
+        <v>29</v>
+      </c>
+      <c r="D122" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id":  53, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>85</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C123" t="s">
+        <v>29</v>
+      </c>
+      <c r="D123" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id":  54, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>86</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C124" t="s">
+        <v>29</v>
+      </c>
+      <c r="D124" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id":  55, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>87</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C125" t="s">
+        <v>29</v>
+      </c>
+      <c r="D125" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id":  56, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>88</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C126" t="s">
+        <v>29</v>
+      </c>
+      <c r="D126" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id":  57, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>89</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C127" t="s">
+        <v>29</v>
+      </c>
+      <c r="D127" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id":  58, "valor":16515072},</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>90</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="2"/>
+        <v>16515072</v>
+      </c>
+      <c r="C128" t="s">
+        <v>53</v>
+      </c>
+      <c r="D128" t="str">
+        <f t="shared" si="3"/>
+        <v>{"id":  59, "valor":16515072}</v>
       </c>
     </row>
   </sheetData>
